--- a/DataSets/PriceBlotterCommodity.xlsx
+++ b/DataSets/PriceBlotterCommodity.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Adaptable Samples\AdaptableSamples\CommodityPricer\Spreadsheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AdaptableTools/adaptableblotter-demo/DataSets/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="31050" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="31060" windowHeight="11500"/>
   </bookViews>
   <sheets>
     <sheet name="CommodityPrice" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,15 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CommodityPrice!$A$2:$A$1078</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1038,27 +1046,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
@@ -1108,7 +1116,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -1158,7 +1166,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1208,7 +1216,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1258,7 +1266,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -1308,7 +1316,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1358,7 +1366,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1408,7 +1416,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1458,7 +1466,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1508,7 +1516,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1558,7 +1566,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1608,7 +1616,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1644,7 +1652,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1674,7 +1682,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1704,7 +1712,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1754,7 +1762,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -1804,7 +1812,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1854,7 +1862,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -1904,7 +1912,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -1954,7 +1962,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -2004,7 +2012,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -2040,7 +2048,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -2090,7 +2098,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -2140,7 +2148,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -2187,7 +2195,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -2237,7 +2245,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -2278,9 +2286,8 @@
       <c r="P26">
         <v>0.01</v>
       </c>
-      <c r="Q26" s="6"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -2329,9 +2336,8 @@
       <c r="P27">
         <v>0.01</v>
       </c>
-      <c r="Q27" s="6"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -2364,7 +2370,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -2400,7 +2406,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -2432,9 +2438,8 @@
       <c r="P30">
         <v>0.01</v>
       </c>
-      <c r="Q30" s="6"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -2469,9 +2474,8 @@
       <c r="P31">
         <v>0.01</v>
       </c>
-      <c r="Q31" s="6"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -2518,7 +2522,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -2568,7 +2572,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -2618,7 +2622,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -2668,7 +2672,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -2718,7 +2722,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -2768,7 +2772,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>50</v>
       </c>
@@ -2815,7 +2819,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -2865,7 +2869,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -2915,7 +2919,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -2965,7 +2969,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -2998,7 +3002,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -3045,7 +3049,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -3095,7 +3099,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -3145,7 +3149,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>55</v>
       </c>

--- a/DataSets/PriceBlotterCommodity.xlsx
+++ b/DataSets/PriceBlotterCommodity.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="31060" windowHeight="11500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26740"/>
   </bookViews>
   <sheets>
     <sheet name="CommodityPrice" sheetId="2" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>Change</t>
   </si>
   <si>
-    <t>PercentChange</t>
-  </si>
-  <si>
     <t>Volume</t>
   </si>
   <si>
@@ -209,12 +206,6 @@
     <t>YearLow</t>
   </si>
   <si>
-    <t>YTDPercentChange</t>
-  </si>
-  <si>
-    <t>OneYearPercentChange</t>
-  </si>
-  <si>
     <t>OTTON</t>
   </si>
   <si>
@@ -234,6 +225,15 @@
   </si>
   <si>
     <t>BidOfferSpread</t>
+  </si>
+  <si>
+    <t>%Change</t>
+  </si>
+  <si>
+    <t>YTD %Change</t>
+  </si>
+  <si>
+    <t>OneYear %Change</t>
   </si>
 </sst>
 </file>
@@ -1048,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1068,13 +1068,13 @@
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -1083,42 +1083,42 @@
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -1168,7 +1168,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -1268,7 +1268,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1318,7 +1318,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -1368,10 +1368,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>45.54</v>
@@ -1418,10 +1418,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>46.06</v>
@@ -1468,10 +1468,10 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>2.0939999999999999</v>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>1.5085999999999999</v>
@@ -1568,10 +1568,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>1.3473999999999999</v>
@@ -1618,10 +1618,10 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>1.512</v>
@@ -1654,10 +1654,10 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>27.55</v>
@@ -1684,10 +1684,10 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="5">
         <v>0.43630000000000002</v>
@@ -1714,10 +1714,10 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15">
         <v>465.5</v>
@@ -1764,10 +1764,10 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16">
         <v>379.5</v>
@@ -1814,10 +1814,10 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17">
         <v>15.68</v>
@@ -1864,10 +1864,10 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18">
         <v>1038</v>
@@ -1914,10 +1914,10 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19">
         <v>33.26</v>
@@ -1964,10 +1964,10 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20">
         <v>342.6</v>
@@ -2014,10 +2014,10 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21">
         <v>140.6</v>
@@ -2050,10 +2050,10 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22">
         <v>125.7</v>
@@ -2100,10 +2100,10 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23">
         <v>3076</v>
@@ -2150,10 +2150,10 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24">
         <v>11.244999999999999</v>
@@ -2197,10 +2197,10 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25">
         <v>194.5</v>
@@ -2247,10 +2247,10 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26">
         <v>12.87</v>
@@ -2289,10 +2289,10 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C27">
         <v>61.77</v>
@@ -2339,10 +2339,10 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28">
         <v>303.89999999999998</v>
@@ -2372,10 +2372,10 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29">
         <v>120.72499999999999</v>
@@ -2408,10 +2408,10 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30">
         <v>147.17500000000001</v>
@@ -2441,10 +2441,10 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>81.275000000000006</v>
@@ -2477,10 +2477,10 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32">
         <v>93.88</v>
@@ -2524,10 +2524,10 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33">
         <v>9275.5</v>
@@ -2574,10 +2574,10 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34">
         <v>1.4463999999999999</v>
@@ -2624,10 +2624,10 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35">
         <v>0.73440000000000005</v>
@@ -2674,10 +2674,10 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C36">
         <v>0.77439999999999998</v>
@@ -2724,10 +2724,10 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C37">
         <v>1.0337000000000001</v>
@@ -2774,10 +2774,10 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38">
         <v>17711</v>
@@ -2821,10 +2821,10 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C39">
         <v>2057.5</v>
@@ -2871,10 +2871,10 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C40">
         <v>4341.25</v>
@@ -2921,10 +2921,10 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C41">
         <v>1454.3</v>
@@ -2971,10 +2971,10 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C42">
         <v>687.9</v>
@@ -3004,10 +3004,10 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C43">
         <v>164.875</v>
@@ -3051,10 +3051,10 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C44">
         <v>109.3984</v>
@@ -3101,10 +3101,10 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C45">
         <v>130.5625</v>
@@ -3151,10 +3151,10 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C46">
         <v>99.18</v>

--- a/DataSets/PriceBlotterCommodity.xlsx
+++ b/DataSets/PriceBlotterCommodity.xlsx
@@ -15,7 +15,7 @@
     <sheet name="CommodityPrice" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CommodityPrice!$A$2:$A$1078</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CommodityPrice!$A$2:$A$1008</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="69">
   <si>
     <t>GOLD</t>
   </si>
@@ -230,10 +230,13 @@
     <t>%Change</t>
   </si>
   <si>
-    <t>YTD %Change</t>
-  </si>
-  <si>
-    <t>OneYear %Change</t>
+    <t>RowId</t>
+  </si>
+  <si>
+    <t>YearStart</t>
+  </si>
+  <si>
+    <t>YTD%Change</t>
   </si>
 </sst>
 </file>
@@ -717,14 +720,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1046,10 +1048,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P46"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1059,14 +1061,14 @@
     <col min="3" max="3" width="15.1640625" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" customWidth="1"/>
+    <col min="13" max="13" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -1101,10 +1103,10 @@
         <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>62</v>
@@ -1115,59 +1117,70 @@
       <c r="P1" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>1281.0999999999999</v>
       </c>
-      <c r="D2" s="3">
-        <v>1281.0999999999999</v>
-      </c>
-      <c r="E2" s="3">
-        <v>-12.9</v>
-      </c>
-      <c r="F2" s="4">
-        <v>-0.01</v>
-      </c>
-      <c r="G2" s="3">
+      <c r="D2">
+        <f>SUM(C2+0.02)</f>
+        <v>1281.1199999999999</v>
+      </c>
+      <c r="E2" s="2">
+        <f t="shared" ref="E2:E46" si="0">SUM(D2-C2)</f>
+        <v>1.999999999998181E-2</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" ref="F2:F46" si="1">SUM((E2/C2)*100)</f>
+        <v>1.5611583795161824E-3</v>
+      </c>
+      <c r="G2" s="2">
         <v>48386</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="4">
         <v>1289.5</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="4">
         <v>1279.0999999999999</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="4">
         <v>1306</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="4">
         <v>1047.2</v>
       </c>
-      <c r="L2">
-        <v>20.65</v>
+      <c r="L2" s="4">
+        <f t="shared" ref="L2:L46" si="2">SUM((J2+K2)/2)</f>
+        <v>1176.5999999999999</v>
       </c>
       <c r="M2">
-        <v>7.57</v>
-      </c>
-      <c r="N2" s="3">
+        <f t="shared" ref="M2:M46" si="3">SUM(((D2-L2)/L2)*100)</f>
+        <v>8.8832228454869959</v>
+      </c>
+      <c r="N2" s="2">
         <v>1280.5999999999999</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="2">
         <v>1281.5999999999999</v>
       </c>
       <c r="P2">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="Q2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
@@ -1177,13 +1190,16 @@
         <v>17.43</v>
       </c>
       <c r="D3">
-        <v>17.43</v>
-      </c>
-      <c r="E3">
-        <v>-9.7000000000000003E-2</v>
-      </c>
-      <c r="F3" s="2">
-        <v>-5.4999999999999997E-3</v>
+        <f>SUM(C3-0.01)</f>
+        <v>17.419999999999998</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.0000000000001563E-2</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" si="1"/>
+        <v>-5.7372346528982009E-2</v>
       </c>
       <c r="G3">
         <v>11720</v>
@@ -1200,11 +1216,13 @@
       <c r="K3">
         <v>13.73</v>
       </c>
-      <c r="L3">
-        <v>25</v>
+      <c r="L3" s="4">
+        <f t="shared" si="2"/>
+        <v>15.895</v>
       </c>
       <c r="M3">
-        <v>4.46</v>
+        <f t="shared" si="3"/>
+        <v>9.5942120163573374</v>
       </c>
       <c r="N3">
         <v>17.43</v>
@@ -1215,9 +1233,12 @@
       <c r="P3">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="Q3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
@@ -1227,13 +1248,16 @@
         <v>2.1230000000000002</v>
       </c>
       <c r="D4">
-        <v>2.1230000000000002</v>
-      </c>
-      <c r="E4">
-        <v>-3.1E-2</v>
-      </c>
-      <c r="F4" s="2">
-        <v>-1.44E-2</v>
+        <f>SUM(C4-0.01)</f>
+        <v>2.1130000000000004</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999997868E-3</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="1"/>
+        <v>-0.47103155911445055</v>
       </c>
       <c r="G4">
         <v>28819</v>
@@ -1250,11 +1274,13 @@
       <c r="K4">
         <v>1.96</v>
       </c>
-      <c r="L4">
-        <v>-1.21</v>
+      <c r="L4" s="4">
+        <f t="shared" si="2"/>
+        <v>2.4500000000000002</v>
       </c>
       <c r="M4">
-        <v>-27.41</v>
+        <f t="shared" si="3"/>
+        <v>-13.755102040816315</v>
       </c>
       <c r="N4">
         <v>2.1230000000000002</v>
@@ -1265,9 +1291,12 @@
       <c r="P4">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="Q4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
@@ -1277,34 +1306,39 @@
         <v>1071.5999999999999</v>
       </c>
       <c r="D5">
-        <v>1071.5999999999999</v>
-      </c>
-      <c r="E5">
-        <v>-13.5</v>
-      </c>
-      <c r="F5" s="2">
-        <v>-1.24E-2</v>
+        <f>SUM(C5+0.02)</f>
+        <v>1071.6199999999999</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>1.999999999998181E-2</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="1"/>
+        <v>1.8663680477773248E-3</v>
       </c>
       <c r="G5">
         <v>3037</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="4">
         <v>1081.2</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="4">
         <v>1070.5</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="4">
         <v>1120.5999999999999</v>
       </c>
       <c r="K5">
         <v>812.4</v>
       </c>
-      <c r="L5">
-        <v>20.11</v>
+      <c r="L5" s="4">
+        <f t="shared" si="2"/>
+        <v>966.5</v>
       </c>
       <c r="M5">
-        <v>-6.62</v>
+        <f t="shared" si="3"/>
+        <v>10.876357992757359</v>
       </c>
       <c r="N5">
         <v>1071.5999999999999</v>
@@ -1315,9 +1349,12 @@
       <c r="P5">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="Q5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
@@ -1327,13 +1364,16 @@
         <v>600.54999999999995</v>
       </c>
       <c r="D6">
-        <v>600.54999999999995</v>
-      </c>
-      <c r="E6">
-        <v>-6.65</v>
-      </c>
-      <c r="F6" s="2">
-        <v>-1.0999999999999999E-2</v>
+        <f>SUM(C6+0.02)</f>
+        <v>600.56999999999994</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.999999999998181E-2</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="1"/>
+        <v>3.3302805761355114E-3</v>
       </c>
       <c r="G6">
         <v>649</v>
@@ -1350,11 +1390,13 @@
       <c r="K6">
         <v>458.6</v>
       </c>
-      <c r="L6">
-        <v>7.44</v>
+      <c r="L6" s="4">
+        <f t="shared" si="2"/>
+        <v>574.29999999999995</v>
       </c>
       <c r="M6">
-        <v>-25.4</v>
+        <f t="shared" si="3"/>
+        <v>4.574264321783037</v>
       </c>
       <c r="N6">
         <v>600.54999999999995</v>
@@ -1365,8 +1407,11 @@
       <c r="P6">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1377,13 +1422,16 @@
         <v>45.54</v>
       </c>
       <c r="D7">
-        <v>45.54</v>
-      </c>
-      <c r="E7">
-        <v>0.88</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1.9699999999999999E-2</v>
+        <f>SUM(C7-0.01)</f>
+        <v>45.53</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999980105E-3</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="1"/>
+        <v>-2.1958717610887156E-2</v>
       </c>
       <c r="G7">
         <v>107195</v>
@@ -1400,11 +1448,13 @@
       <c r="K7">
         <v>30.79</v>
       </c>
-      <c r="L7">
-        <v>11.92</v>
+      <c r="L7" s="4">
+        <f t="shared" si="2"/>
+        <v>48.034999999999997</v>
       </c>
       <c r="M7">
-        <v>-27.78</v>
+        <f t="shared" si="3"/>
+        <v>-5.2149474341625801</v>
       </c>
       <c r="N7">
         <v>45.54</v>
@@ -1415,8 +1465,11 @@
       <c r="P7">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1427,13 +1480,16 @@
         <v>46.06</v>
       </c>
       <c r="D8">
-        <v>46.06</v>
-      </c>
-      <c r="E8">
-        <v>0.69</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1.52E-2</v>
+        <f>SUM(C8-0.01)</f>
+        <v>46.050000000000004</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999980105E-3</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="1"/>
+        <v>-2.1710811984363896E-2</v>
       </c>
       <c r="G8">
         <v>59818</v>
@@ -1450,11 +1506,13 @@
       <c r="K8">
         <v>30.02</v>
       </c>
-      <c r="L8">
-        <v>11.31</v>
+      <c r="L8" s="4">
+        <f t="shared" si="2"/>
+        <v>50.58</v>
       </c>
       <c r="M8">
-        <v>-34.68</v>
+        <f t="shared" si="3"/>
+        <v>-8.9561091340450645</v>
       </c>
       <c r="N8">
         <v>46.06</v>
@@ -1465,8 +1523,11 @@
       <c r="P8">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1477,13 +1538,16 @@
         <v>2.0939999999999999</v>
       </c>
       <c r="D9">
-        <v>2.0939999999999999</v>
-      </c>
-      <c r="E9">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-      <c r="F9" s="2">
-        <v>-3.3E-3</v>
+        <f>SUM(C9+0.01)</f>
+        <v>2.1039999999999996</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>9.9999999999997868E-3</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="1"/>
+        <v>0.47755491881565371</v>
       </c>
       <c r="G9">
         <v>2783</v>
@@ -1500,11 +1564,13 @@
       <c r="K9">
         <v>1.84</v>
       </c>
-      <c r="L9">
-        <v>-15.01</v>
+      <c r="L9" s="4">
+        <f t="shared" si="2"/>
+        <v>2.52</v>
       </c>
       <c r="M9">
-        <v>-32.549999999999997</v>
+        <f t="shared" si="3"/>
+        <v>-16.50793650793652</v>
       </c>
       <c r="N9">
         <v>2.0939999999999999</v>
@@ -1515,8 +1581,11 @@
       <c r="P9">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1527,13 +1596,16 @@
         <v>1.5085999999999999</v>
       </c>
       <c r="D10">
-        <v>1.5085999999999999</v>
-      </c>
-      <c r="E10">
-        <v>1.24E-2</v>
-      </c>
-      <c r="F10" s="2">
-        <v>8.3000000000000001E-3</v>
+        <f>SUM(C10+0.01)</f>
+        <v>1.5185999999999999</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="1"/>
+        <v>0.66286623359406138</v>
       </c>
       <c r="G10">
         <v>2645</v>
@@ -1550,11 +1622,13 @@
       <c r="K10">
         <v>1.1499999999999999</v>
       </c>
-      <c r="L10">
-        <v>-0.95</v>
+      <c r="L10" s="4">
+        <f t="shared" si="2"/>
+        <v>1.5999999999999999</v>
       </c>
       <c r="M10">
-        <v>-24.84</v>
+        <f t="shared" si="3"/>
+        <v>-5.0874999999999959</v>
       </c>
       <c r="N10">
         <v>1.5085999999999999</v>
@@ -1565,8 +1639,11 @@
       <c r="P10">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1577,13 +1654,16 @@
         <v>1.3473999999999999</v>
       </c>
       <c r="D11">
-        <v>1.3473999999999999</v>
-      </c>
-      <c r="E11">
-        <v>1.01E-2</v>
-      </c>
-      <c r="F11" s="2">
-        <v>7.6E-3</v>
+        <f>SUM(C11+0.01)</f>
+        <v>1.3573999999999999</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="1"/>
+        <v>0.74217010538815564</v>
       </c>
       <c r="G11">
         <v>2971</v>
@@ -1600,11 +1680,13 @@
       <c r="K11">
         <v>0.92</v>
       </c>
-      <c r="L11">
-        <v>10.4</v>
+      <c r="L11" s="4">
+        <f t="shared" si="2"/>
+        <v>1.5149999999999999</v>
       </c>
       <c r="M11">
-        <v>-35.130000000000003</v>
+        <f t="shared" si="3"/>
+        <v>-10.402640264026401</v>
       </c>
       <c r="N11">
         <v>1.3473999999999999</v>
@@ -1615,8 +1697,11 @@
       <c r="P11">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1627,20 +1712,30 @@
         <v>1.512</v>
       </c>
       <c r="D12">
-        <v>1.512</v>
-      </c>
-      <c r="F12" s="5"/>
+        <f>SUM(C12+0.03)</f>
+        <v>1.542</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="1"/>
+        <v>1.9841269841269857</v>
+      </c>
       <c r="J12">
         <v>1.58</v>
       </c>
       <c r="K12">
         <v>1.37</v>
       </c>
-      <c r="L12">
-        <v>3.77</v>
+      <c r="L12" s="4">
+        <f t="shared" si="2"/>
+        <v>1.4750000000000001</v>
       </c>
       <c r="M12">
-        <v>6.7</v>
+        <f t="shared" si="3"/>
+        <v>4.542372881355929</v>
       </c>
       <c r="N12">
         <v>1.512</v>
@@ -1651,8 +1746,11 @@
       <c r="P12">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1663,14 +1761,30 @@
         <v>27.55</v>
       </c>
       <c r="D13">
-        <v>27.55</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="L13">
-        <v>-20.95</v>
+        <f>SUM(C13+0.03)</f>
+        <v>27.580000000000002</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="1"/>
+        <v>0.10889292196007673</v>
+      </c>
+      <c r="J13">
+        <v>29.32</v>
+      </c>
+      <c r="K13">
+        <v>21.28</v>
+      </c>
+      <c r="L13" s="4">
+        <f t="shared" si="2"/>
+        <v>25.3</v>
       </c>
       <c r="M13">
-        <v>-27.79</v>
+        <f t="shared" si="3"/>
+        <v>9.0118577075098862</v>
       </c>
       <c r="N13">
         <v>27.55</v>
@@ -1681,8 +1795,11 @@
       <c r="P13">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1693,14 +1810,30 @@
         <v>0.43630000000000002</v>
       </c>
       <c r="D14" s="5">
-        <v>0.43630000000000002</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="L14">
-        <v>-1.51</v>
+        <f>SUM(C14-0.02)</f>
+        <v>0.4163</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="1"/>
+        <v>-4.5840018336007375</v>
+      </c>
+      <c r="J14">
+        <v>0.48409999999999997</v>
+      </c>
+      <c r="K14">
+        <v>0.39539999999999997</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="2"/>
+        <v>0.43974999999999997</v>
       </c>
       <c r="M14">
-        <v>-11.95</v>
+        <f t="shared" si="3"/>
+        <v>-5.3325753268902725</v>
       </c>
       <c r="N14">
         <v>0.43630000000000002</v>
@@ -1711,8 +1844,11 @@
       <c r="P14">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1723,13 +1859,16 @@
         <v>465.5</v>
       </c>
       <c r="D15">
-        <v>465.5</v>
-      </c>
-      <c r="E15">
-        <v>1.75</v>
-      </c>
-      <c r="F15" s="2">
-        <v>3.8E-3</v>
+        <f>SUM(C15+0.02)</f>
+        <v>465.52</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>1.999999999998181E-2</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="1"/>
+        <v>4.2964554242710656E-3</v>
       </c>
       <c r="G15">
         <v>4318</v>
@@ -1746,11 +1885,13 @@
       <c r="K15">
         <v>449.5</v>
       </c>
-      <c r="L15">
-        <v>-3.62</v>
+      <c r="L15" s="4">
+        <f t="shared" si="2"/>
+        <v>539</v>
       </c>
       <c r="M15">
-        <v>-13.36</v>
+        <f t="shared" si="3"/>
+        <v>-13.632653061224492</v>
       </c>
       <c r="N15">
         <v>465.5</v>
@@ -1761,8 +1902,11 @@
       <c r="P15">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1773,13 +1917,16 @@
         <v>379.5</v>
       </c>
       <c r="D16">
-        <v>379.5</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16" s="2">
-        <v>5.3E-3</v>
+        <f>SUM(C16+0.02)</f>
+        <v>379.52</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>1.999999999998181E-2</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="1"/>
+        <v>5.2700922266091721E-3</v>
       </c>
       <c r="G16">
         <v>11265</v>
@@ -1796,11 +1943,13 @@
       <c r="K16">
         <v>351.25</v>
       </c>
-      <c r="L16">
-        <v>2.4300000000000002</v>
+      <c r="L16" s="4">
+        <f t="shared" si="2"/>
+        <v>411.25</v>
       </c>
       <c r="M16">
-        <v>-6.3</v>
+        <f t="shared" si="3"/>
+        <v>-7.7155015197568426</v>
       </c>
       <c r="N16">
         <v>379.5</v>
@@ -1811,8 +1960,11 @@
       <c r="P16">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1823,13 +1975,16 @@
         <v>15.68</v>
       </c>
       <c r="D17">
-        <v>15.68</v>
-      </c>
-      <c r="E17">
-        <v>-0.06</v>
-      </c>
-      <c r="F17" s="5">
-        <v>-3.8E-3</v>
+        <f>SUM(C17-0.01)</f>
+        <v>15.67</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999997868E-3</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="1"/>
+        <v>-6.3775510204080274E-2</v>
       </c>
       <c r="G17">
         <v>4948</v>
@@ -1846,11 +2001,13 @@
       <c r="K17">
         <v>11.37</v>
       </c>
-      <c r="L17">
-        <v>7.11</v>
+      <c r="L17" s="4">
+        <f t="shared" si="2"/>
+        <v>14.120000000000001</v>
       </c>
       <c r="M17">
-        <v>5.74</v>
+        <f t="shared" si="3"/>
+        <v>10.977337110481578</v>
       </c>
       <c r="N17">
         <v>15.68</v>
@@ -1861,8 +2018,11 @@
       <c r="P17">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -1873,34 +2033,39 @@
         <v>1038</v>
       </c>
       <c r="D18">
-        <v>1038</v>
-      </c>
-      <c r="E18">
-        <v>3.25</v>
-      </c>
-      <c r="F18" s="2">
-        <v>3.0999999999999999E-3</v>
+        <f>SUM(C18+0.02)</f>
+        <v>1038.02</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>1.999999999998181E-2</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="1"/>
+        <v>1.9267822736013303E-3</v>
       </c>
       <c r="G18">
         <v>20355</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="4">
         <v>1044</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="4">
         <v>1031.75</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="4">
         <v>1057</v>
       </c>
       <c r="K18">
         <v>859.5</v>
       </c>
-      <c r="L18">
-        <v>18.329999999999998</v>
+      <c r="L18" s="4">
+        <f t="shared" si="2"/>
+        <v>958.25</v>
       </c>
       <c r="M18">
-        <v>7.01</v>
+        <f t="shared" si="3"/>
+        <v>8.3245499608661611</v>
       </c>
       <c r="N18">
         <v>1038</v>
@@ -1911,8 +2076,11 @@
       <c r="P18">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1923,13 +2091,16 @@
         <v>33.26</v>
       </c>
       <c r="D19">
-        <v>33.26</v>
-      </c>
-      <c r="E19">
-        <v>0.2</v>
-      </c>
-      <c r="F19" s="2">
-        <v>6.0000000000000001E-3</v>
+        <f>SUM(C19-0.01)</f>
+        <v>33.25</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999980105E-3</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="1"/>
+        <v>-3.0066145520138341E-2</v>
       </c>
       <c r="G19">
         <v>10591</v>
@@ -1946,11 +2117,13 @@
       <c r="K19">
         <v>26.61</v>
       </c>
-      <c r="L19">
-        <v>7.12</v>
+      <c r="L19" s="4">
+        <f t="shared" si="2"/>
+        <v>31.02</v>
       </c>
       <c r="M19">
-        <v>-0.89</v>
+        <f t="shared" si="3"/>
+        <v>7.1889103803997436</v>
       </c>
       <c r="N19">
         <v>33.26</v>
@@ -1961,8 +2134,11 @@
       <c r="P19">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -1973,13 +2149,16 @@
         <v>342.6</v>
       </c>
       <c r="D20">
-        <v>342.6</v>
-      </c>
-      <c r="E20">
-        <v>-0.2</v>
-      </c>
-      <c r="F20" s="2">
-        <v>-5.9999999999999995E-4</v>
+        <f>SUM(C20+0.02)</f>
+        <v>342.62</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="0"/>
+        <v>1.999999999998181E-2</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" si="1"/>
+        <v>5.8377116170408088E-3</v>
       </c>
       <c r="G20">
         <v>5646</v>
@@ -1996,11 +2175,13 @@
       <c r="K20">
         <v>261.7</v>
       </c>
-      <c r="L20">
-        <v>25.55</v>
+      <c r="L20" s="4">
+        <f t="shared" si="2"/>
+        <v>307.54999999999995</v>
       </c>
       <c r="M20">
-        <v>11.24</v>
+        <f t="shared" si="3"/>
+        <v>11.403023898553098</v>
       </c>
       <c r="N20">
         <v>342.6</v>
@@ -2011,8 +2192,11 @@
       <c r="P20">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -2022,21 +2206,31 @@
       <c r="C21">
         <v>140.6</v>
       </c>
-      <c r="D21">
-        <v>140.6</v>
-      </c>
-      <c r="F21" s="5"/>
+      <c r="D21" s="5">
+        <f>SUM(C21-0.02)</f>
+        <v>140.57999999999998</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="0"/>
+        <v>-2.0000000000010232E-2</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.4224751066863609E-2</v>
+      </c>
       <c r="J21">
         <v>155.94999999999999</v>
       </c>
       <c r="K21">
         <v>113</v>
       </c>
-      <c r="L21">
-        <v>-2.7</v>
+      <c r="L21" s="4">
+        <f t="shared" si="2"/>
+        <v>134.47499999999999</v>
       </c>
       <c r="M21">
-        <v>9.08</v>
+        <f t="shared" si="3"/>
+        <v>4.5398773006134894</v>
       </c>
       <c r="N21">
         <v>140.6</v>
@@ -2047,8 +2241,11 @@
       <c r="P21">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -2059,13 +2256,16 @@
         <v>125.7</v>
       </c>
       <c r="D22">
-        <v>125.7</v>
-      </c>
-      <c r="E22">
-        <v>1.2</v>
-      </c>
-      <c r="F22" s="5">
-        <v>9.5999999999999992E-3</v>
+        <f>SUM(C22-0.01)</f>
+        <v>125.69</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.0000000000005116E-2</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="1"/>
+        <v>-7.9554494828998519E-3</v>
       </c>
       <c r="G22">
         <v>1654</v>
@@ -2082,11 +2282,13 @@
       <c r="K22">
         <v>115.35</v>
       </c>
-      <c r="L22">
-        <v>-3.62</v>
+      <c r="L22" s="4">
+        <f t="shared" si="2"/>
+        <v>135.55000000000001</v>
       </c>
       <c r="M22">
-        <v>-15.43</v>
+        <f t="shared" si="3"/>
+        <v>-7.2740686093692455</v>
       </c>
       <c r="N22">
         <v>125.7</v>
@@ -2097,8 +2299,11 @@
       <c r="P22">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -2109,34 +2314,39 @@
         <v>3076</v>
       </c>
       <c r="D23">
-        <v>3076</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23" s="5">
-        <v>6.9999999999999999E-4</v>
+        <f>SUM(C23+0.03)</f>
+        <v>3076.03</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="0"/>
+        <v>3.0000000000200089E-2</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="1"/>
+        <v>9.7529258778283781E-4</v>
       </c>
       <c r="G23">
         <v>978</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="4">
         <v>3078</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="4">
         <v>3066</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="4">
         <v>3406</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="4">
         <v>2746</v>
       </c>
-      <c r="L23">
-        <v>-4.0199999999999996</v>
+      <c r="L23" s="4">
+        <f t="shared" si="2"/>
+        <v>3076</v>
       </c>
       <c r="M23">
-        <v>6.51</v>
+        <f t="shared" si="3"/>
+        <v>9.7529258778283781E-4</v>
       </c>
       <c r="N23">
         <v>3076</v>
@@ -2147,8 +2357,11 @@
       <c r="P23">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -2159,13 +2372,16 @@
         <v>11.244999999999999</v>
       </c>
       <c r="D24">
-        <v>11.244999999999999</v>
-      </c>
-      <c r="E24">
-        <v>-0.16500000000000001</v>
-      </c>
-      <c r="F24" s="2">
-        <v>-1.4500000000000001E-2</v>
+        <f>SUM(C24-0.01)</f>
+        <v>11.234999999999999</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999997868E-3</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="1"/>
+        <v>-8.8928412627832701E-2</v>
       </c>
       <c r="G24">
         <v>218</v>
@@ -2182,8 +2398,13 @@
       <c r="K24">
         <v>9.6999999999999993</v>
       </c>
-      <c r="L24">
-        <v>-9.1300000000000008</v>
+      <c r="L24" s="4">
+        <f t="shared" si="2"/>
+        <v>11.92</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="3"/>
+        <v>-5.7466442953020174</v>
       </c>
       <c r="N24">
         <v>11.244999999999999</v>
@@ -2194,8 +2415,11 @@
       <c r="P24">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -2206,13 +2430,16 @@
         <v>194.5</v>
       </c>
       <c r="D25">
-        <v>194.5</v>
-      </c>
-      <c r="E25">
-        <v>1.5</v>
-      </c>
-      <c r="F25" s="2">
-        <v>7.7999999999999996E-3</v>
+        <f>SUM(C25+0.02)</f>
+        <v>194.52</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0000000000010232E-2</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0282776349619657E-2</v>
       </c>
       <c r="G25">
         <v>62</v>
@@ -2229,11 +2456,13 @@
       <c r="K25">
         <v>183.75</v>
       </c>
-      <c r="L25">
-        <v>-12.98</v>
+      <c r="L25" s="4">
+        <f t="shared" si="2"/>
+        <v>212.5</v>
       </c>
       <c r="M25">
-        <v>-27.29</v>
+        <f t="shared" si="3"/>
+        <v>-8.4611764705882297</v>
       </c>
       <c r="N25">
         <v>194.5</v>
@@ -2244,8 +2473,11 @@
       <c r="P25">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -2256,9 +2488,17 @@
         <v>12.87</v>
       </c>
       <c r="D26">
-        <v>12.87</v>
-      </c>
-      <c r="F26" s="5"/>
+        <f>SUM(C26-0.01)</f>
+        <v>12.86</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999997868E-3</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" si="1"/>
+        <v>-7.7700077700076059E-2</v>
+      </c>
       <c r="H26">
         <v>12.89</v>
       </c>
@@ -2271,11 +2511,13 @@
       <c r="K26">
         <v>12.81</v>
       </c>
-      <c r="L26">
-        <v>-13.74</v>
+      <c r="L26" s="4">
+        <f t="shared" si="2"/>
+        <v>14.885000000000002</v>
       </c>
       <c r="M26">
-        <v>-23.44</v>
+        <f t="shared" si="3"/>
+        <v>-13.604299630500517</v>
       </c>
       <c r="N26">
         <v>12.87</v>
@@ -2286,8 +2528,11 @@
       <c r="P26">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -2298,13 +2543,16 @@
         <v>61.77</v>
       </c>
       <c r="D27">
-        <v>61.77</v>
-      </c>
-      <c r="E27">
-        <v>-0.06</v>
-      </c>
-      <c r="F27" s="2">
-        <v>-1E-3</v>
+        <f>SUM(C27-0.01)</f>
+        <v>61.760000000000005</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999980105E-3</v>
+      </c>
+      <c r="F27" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.6189088554311171E-2</v>
       </c>
       <c r="G27">
         <v>3612</v>
@@ -2321,11 +2569,13 @@
       <c r="K27">
         <v>54.33</v>
       </c>
-      <c r="L27">
-        <v>-4.72</v>
+      <c r="L27" s="4">
+        <f t="shared" si="2"/>
+        <v>60.96</v>
       </c>
       <c r="M27">
-        <v>-6.69</v>
+        <f t="shared" si="3"/>
+        <v>1.3123359580052563</v>
       </c>
       <c r="N27">
         <v>61.77</v>
@@ -2336,8 +2586,11 @@
       <c r="P27">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -2347,18 +2600,31 @@
       <c r="C28">
         <v>303.89999999999998</v>
       </c>
-      <c r="D28">
-        <v>303.89999999999998</v>
-      </c>
-      <c r="F28" s="5"/>
+      <c r="D28" s="5">
+        <f>SUM(C28-0.02)</f>
+        <v>303.88</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.999999999998181E-2</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" si="1"/>
+        <v>-6.5811122079571611E-3</v>
+      </c>
       <c r="J28">
         <v>317.10000000000002</v>
       </c>
       <c r="K28">
         <v>236</v>
       </c>
-      <c r="L28">
-        <v>15.99</v>
+      <c r="L28" s="4">
+        <f t="shared" si="2"/>
+        <v>276.55</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="3"/>
+        <v>9.8824805640932869</v>
       </c>
       <c r="N28">
         <v>303.89999999999998</v>
@@ -2369,8 +2635,11 @@
       <c r="P28">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -2380,21 +2649,31 @@
       <c r="C29">
         <v>120.72499999999999</v>
       </c>
-      <c r="D29">
-        <v>120.72499999999999</v>
-      </c>
-      <c r="F29" s="5"/>
+      <c r="D29" s="5">
+        <f>SUM(C29-0.02)</f>
+        <v>120.705</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.9999999999996021E-2</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.6566576931038329E-2</v>
+      </c>
       <c r="J29">
         <v>147.97999999999999</v>
       </c>
       <c r="K29">
         <v>113.9</v>
       </c>
-      <c r="L29">
-        <v>-5.15</v>
+      <c r="L29" s="4">
+        <f t="shared" si="2"/>
+        <v>130.94</v>
       </c>
       <c r="M29">
-        <v>-16.399999999999999</v>
+        <f t="shared" si="3"/>
+        <v>-7.8165572017718041</v>
       </c>
       <c r="N29">
         <v>120.72499999999999</v>
@@ -2405,8 +2684,11 @@
       <c r="P29">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -2416,18 +2698,31 @@
       <c r="C30">
         <v>147.17500000000001</v>
       </c>
-      <c r="D30">
-        <v>147.17500000000001</v>
-      </c>
-      <c r="F30" s="5"/>
+      <c r="D30" s="5">
+        <f>SUM(C30-0.02)</f>
+        <v>147.155</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="0"/>
+        <v>-2.0000000000010232E-2</v>
+      </c>
+      <c r="F30" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.3589264481066914E-2</v>
+      </c>
       <c r="J30">
         <v>190</v>
       </c>
       <c r="K30">
         <v>138.1</v>
       </c>
-      <c r="L30">
-        <v>-10.75</v>
+      <c r="L30" s="4">
+        <f t="shared" si="2"/>
+        <v>164.05</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="3"/>
+        <v>-10.298689423956116</v>
       </c>
       <c r="N30">
         <v>147.17500000000001</v>
@@ -2438,8 +2733,11 @@
       <c r="P30">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -2449,21 +2747,31 @@
       <c r="C31">
         <v>81.275000000000006</v>
       </c>
-      <c r="D31">
-        <v>81.275000000000006</v>
-      </c>
-      <c r="F31" s="5"/>
+      <c r="D31" s="5">
+        <f>SUM(C31-0.02)</f>
+        <v>81.25500000000001</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.9999999999996021E-2</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" si="1"/>
+        <v>-2.4607812980616452E-2</v>
+      </c>
       <c r="J31">
         <v>83.98</v>
       </c>
       <c r="K31">
         <v>70.25</v>
       </c>
-      <c r="L31">
-        <v>4.2</v>
+      <c r="L31" s="4">
+        <f t="shared" si="2"/>
+        <v>77.115000000000009</v>
       </c>
       <c r="M31">
-        <v>0.53</v>
+        <f t="shared" si="3"/>
+        <v>5.3686053297023921</v>
       </c>
       <c r="N31">
         <v>81.275000000000006</v>
@@ -2474,8 +2782,11 @@
       <c r="P31">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -2486,13 +2797,16 @@
         <v>93.88</v>
       </c>
       <c r="D32">
-        <v>93.88</v>
-      </c>
-      <c r="E32">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-      <c r="F32" s="2">
-        <v>0</v>
+        <f>SUM(C32-0.01)</f>
+        <v>93.86999999999999</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.0000000000005116E-2</v>
+      </c>
+      <c r="F32" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.0651896037500124E-2</v>
       </c>
       <c r="G32">
         <v>5786</v>
@@ -2509,8 +2823,13 @@
       <c r="K32">
         <v>91.88</v>
       </c>
-      <c r="L32">
-        <v>-5</v>
+      <c r="L32" s="4">
+        <f t="shared" si="2"/>
+        <v>96.289999999999992</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="3"/>
+        <v>-2.5132412503894508</v>
       </c>
       <c r="N32">
         <v>93.88</v>
@@ -2521,8 +2840,11 @@
       <c r="P32">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -2533,13 +2855,16 @@
         <v>9275.5</v>
       </c>
       <c r="D33">
-        <v>9275.5</v>
-      </c>
-      <c r="E33">
-        <v>-66.5</v>
-      </c>
-      <c r="F33" s="2">
-        <v>-7.1000000000000004E-3</v>
+        <f>SUM(C33+0.01)</f>
+        <v>9275.51</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000218279E-2</v>
+      </c>
+      <c r="F33" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0781089968431113E-4</v>
       </c>
       <c r="G33">
         <v>47732</v>
@@ -2550,17 +2875,19 @@
       <c r="I33">
         <v>0.93</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J33" s="4">
         <v>9483</v>
       </c>
       <c r="K33">
         <v>0.93</v>
       </c>
-      <c r="L33">
-        <v>-99.99</v>
+      <c r="L33" s="4">
+        <f t="shared" si="2"/>
+        <v>4741.9650000000001</v>
       </c>
       <c r="M33">
-        <v>-99.99</v>
+        <f t="shared" si="3"/>
+        <v>95.604775657348796</v>
       </c>
       <c r="N33">
         <v>9275.5</v>
@@ -2571,8 +2898,11 @@
       <c r="P33">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -2583,13 +2913,16 @@
         <v>1.4463999999999999</v>
       </c>
       <c r="D34">
-        <v>1.4463999999999999</v>
-      </c>
-      <c r="E34">
-        <v>4.3E-3</v>
-      </c>
-      <c r="F34" s="2">
-        <v>3.0000000000000001E-3</v>
+        <f>SUM(C34+0.01)</f>
+        <v>1.4563999999999999</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F34" s="3">
+        <f t="shared" si="1"/>
+        <v>0.69137168141592986</v>
       </c>
       <c r="G34">
         <v>29449</v>
@@ -2606,11 +2939,13 @@
       <c r="K34">
         <v>1.38</v>
       </c>
-      <c r="L34">
-        <v>-1.94</v>
+      <c r="L34" s="4">
+        <f t="shared" si="2"/>
+        <v>1.4849999999999999</v>
       </c>
       <c r="M34">
-        <v>-5.07</v>
+        <f t="shared" si="3"/>
+        <v>-1.9259259259259234</v>
       </c>
       <c r="N34">
         <v>1.4463999999999999</v>
@@ -2621,8 +2956,11 @@
       <c r="P34">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -2633,13 +2971,16 @@
         <v>0.73440000000000005</v>
       </c>
       <c r="D35">
-        <v>0.73440000000000005</v>
-      </c>
-      <c r="E35">
-        <v>-6.9999999999999999E-4</v>
-      </c>
-      <c r="F35" s="2">
-        <v>-1E-3</v>
+        <f>SUM(C35+0.01)</f>
+        <v>0.74440000000000006</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F35" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3616557734204804</v>
       </c>
       <c r="G35">
         <v>36764</v>
@@ -2656,11 +2997,13 @@
       <c r="K35">
         <v>0.68</v>
       </c>
-      <c r="L35">
-        <v>1.52</v>
+      <c r="L35" s="4">
+        <f t="shared" si="2"/>
+        <v>0.7350000000000001</v>
       </c>
       <c r="M35">
-        <v>-5.29</v>
+        <f t="shared" si="3"/>
+        <v>1.2789115646258453</v>
       </c>
       <c r="N35">
         <v>0.73440000000000005</v>
@@ -2671,8 +3014,11 @@
       <c r="P35">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -2683,13 +3029,16 @@
         <v>0.77439999999999998</v>
       </c>
       <c r="D36">
-        <v>0.77439999999999998</v>
-      </c>
-      <c r="E36">
-        <v>1.2999999999999999E-3</v>
-      </c>
-      <c r="F36" s="2">
-        <v>1.6999999999999999E-3</v>
+        <f>SUM(C36+0.01)</f>
+        <v>0.78439999999999999</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F36" s="3">
+        <f t="shared" si="1"/>
+        <v>1.291322314049588</v>
       </c>
       <c r="G36">
         <v>13668</v>
@@ -2706,11 +3055,13 @@
       <c r="K36">
         <v>0.68</v>
       </c>
-      <c r="L36">
-        <v>7.02</v>
+      <c r="L36" s="4">
+        <f t="shared" si="2"/>
+        <v>0.755</v>
       </c>
       <c r="M36">
-        <v>-5.68</v>
+        <f t="shared" si="3"/>
+        <v>3.8940397350993354</v>
       </c>
       <c r="N36">
         <v>0.77439999999999998</v>
@@ -2721,8 +3072,11 @@
       <c r="P36">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -2733,13 +3087,16 @@
         <v>1.0337000000000001</v>
       </c>
       <c r="D37">
-        <v>1.0337000000000001</v>
-      </c>
-      <c r="E37">
-        <v>3.3E-3</v>
-      </c>
-      <c r="F37" s="2">
-        <v>3.2000000000000002E-3</v>
+        <f>SUM(C37+0.01)</f>
+        <v>1.0437000000000001</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F37" s="3">
+        <f t="shared" si="1"/>
+        <v>0.96739866498984306</v>
       </c>
       <c r="G37">
         <v>5550</v>
@@ -2756,11 +3113,13 @@
       <c r="K37">
         <v>0.98</v>
       </c>
-      <c r="L37">
-        <v>1.58</v>
+      <c r="L37" s="4">
+        <f t="shared" si="2"/>
+        <v>1.0449999999999999</v>
       </c>
       <c r="M37">
-        <v>-6.56</v>
+        <f t="shared" si="3"/>
+        <v>-0.12440191387558439</v>
       </c>
       <c r="N37">
         <v>1.0337000000000001</v>
@@ -2771,8 +3130,11 @@
       <c r="P37">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -2783,31 +3145,39 @@
         <v>17711</v>
       </c>
       <c r="D38">
-        <v>17711</v>
-      </c>
-      <c r="E38">
-        <v>40</v>
-      </c>
-      <c r="F38" s="2">
-        <v>2.3E-3</v>
+        <f>SUM(C38+0.03)</f>
+        <v>17711.03</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="0"/>
+        <v>2.9999999998835847E-2</v>
+      </c>
+      <c r="F38" s="3">
+        <f t="shared" si="1"/>
+        <v>1.6938625712176525E-4</v>
       </c>
       <c r="G38">
         <v>22234</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38" s="4">
         <v>17727</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I38" s="4">
         <v>17642</v>
       </c>
-      <c r="J38" s="6">
+      <c r="J38" s="4">
         <v>18083</v>
       </c>
-      <c r="K38" s="6">
+      <c r="K38" s="4">
         <v>15299</v>
       </c>
-      <c r="L38">
-        <v>2.67</v>
+      <c r="L38" s="4">
+        <f t="shared" si="2"/>
+        <v>16691</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="3"/>
+        <v>6.1112575639566167</v>
       </c>
       <c r="N38">
         <v>17711</v>
@@ -2818,8 +3188,11 @@
       <c r="P38">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -2830,34 +3203,39 @@
         <v>2057.5</v>
       </c>
       <c r="D39">
-        <v>2057.5</v>
-      </c>
-      <c r="E39">
-        <v>4.75</v>
-      </c>
-      <c r="F39" s="2">
-        <v>2.3E-3</v>
+        <f>SUM(C39+0.03)</f>
+        <v>2057.5300000000002</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="0"/>
+        <v>3.0000000000200089E-2</v>
+      </c>
+      <c r="F39" s="3">
+        <f t="shared" si="1"/>
+        <v>1.4580801944204175E-3</v>
       </c>
       <c r="G39">
         <v>142779</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H39" s="4">
         <v>2059.5</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I39" s="4">
         <v>2049</v>
       </c>
-      <c r="J39" s="6">
+      <c r="J39" s="4">
         <v>2105.5</v>
       </c>
-      <c r="K39" s="6">
+      <c r="K39" s="4">
         <v>1794.5</v>
       </c>
-      <c r="L39">
-        <v>1.42</v>
+      <c r="L39" s="4">
+        <f t="shared" si="2"/>
+        <v>1950</v>
       </c>
       <c r="M39">
-        <v>-1.26</v>
+        <f t="shared" si="3"/>
+        <v>5.5143589743589851</v>
       </c>
       <c r="N39">
         <v>2057.5</v>
@@ -2868,8 +3246,11 @@
       <c r="P39">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -2880,34 +3261,39 @@
         <v>4341.25</v>
       </c>
       <c r="D40">
-        <v>4341.25</v>
-      </c>
-      <c r="E40">
-        <v>13</v>
-      </c>
-      <c r="F40" s="2">
-        <v>3.0000000000000001E-3</v>
+        <f>SUM(C40+0.03)</f>
+        <v>4341.28</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="0"/>
+        <v>2.9999999999745341E-2</v>
+      </c>
+      <c r="F40" s="3">
+        <f t="shared" si="1"/>
+        <v>6.9104520586801821E-4</v>
       </c>
       <c r="G40">
         <v>18259</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H40" s="4">
         <v>4347</v>
       </c>
-      <c r="I40" s="6">
+      <c r="I40" s="4">
         <v>4318</v>
       </c>
-      <c r="J40" s="6">
+      <c r="J40" s="4">
         <v>4719.75</v>
       </c>
-      <c r="K40" s="6">
+      <c r="K40" s="4">
         <v>3867.75</v>
       </c>
-      <c r="L40">
-        <v>-5.34</v>
+      <c r="L40" s="4">
+        <f t="shared" si="2"/>
+        <v>4293.75</v>
       </c>
       <c r="M40">
-        <v>-1.88</v>
+        <f t="shared" si="3"/>
+        <v>1.1069577874817988</v>
       </c>
       <c r="N40">
         <v>4341.25</v>
@@ -2918,8 +3304,11 @@
       <c r="P40">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -2930,34 +3319,39 @@
         <v>1454.3</v>
       </c>
       <c r="D41">
-        <v>1454.3</v>
-      </c>
-      <c r="E41">
-        <v>3.5</v>
-      </c>
-      <c r="F41" s="2">
-        <v>2.3999999999999998E-3</v>
+        <f>SUM(C41-0.02)</f>
+        <v>1454.28</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.999999999998181E-2</v>
+      </c>
+      <c r="F41" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.3752320704106312E-3</v>
       </c>
       <c r="G41">
         <v>336</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41" s="4">
         <v>1455</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I41" s="4">
         <v>1448</v>
       </c>
-      <c r="J41" s="6">
+      <c r="J41" s="4">
         <v>1527.3</v>
       </c>
-      <c r="K41" s="6">
+      <c r="K41" s="4">
         <v>1236</v>
       </c>
-      <c r="L41">
-        <v>4.82</v>
+      <c r="L41" s="4">
+        <f t="shared" si="2"/>
+        <v>1381.65</v>
       </c>
       <c r="M41">
-        <v>-2.56</v>
+        <f t="shared" si="3"/>
+        <v>5.2567582238627644</v>
       </c>
       <c r="N41">
         <v>1454.3</v>
@@ -2968,8 +3362,11 @@
       <c r="P41">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -2979,18 +3376,31 @@
       <c r="C42">
         <v>687.9</v>
       </c>
-      <c r="D42">
-        <v>687.9</v>
-      </c>
-      <c r="F42" s="2"/>
+      <c r="D42" s="5">
+        <f>SUM(C42-0.02)</f>
+        <v>687.88</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.999999999998181E-2</v>
+      </c>
+      <c r="F42" s="3">
+        <f t="shared" si="1"/>
+        <v>-2.9073993312955099E-3</v>
+      </c>
+      <c r="J42" s="4">
+        <v>620.32000000000005</v>
+      </c>
       <c r="K42">
         <v>595.9</v>
       </c>
-      <c r="L42">
-        <v>2.86</v>
+      <c r="L42" s="4">
+        <f t="shared" si="2"/>
+        <v>608.11</v>
       </c>
       <c r="M42">
-        <v>-1.53</v>
+        <f t="shared" si="3"/>
+        <v>13.117692522734369</v>
       </c>
       <c r="N42">
         <v>687.9</v>
@@ -3001,8 +3411,11 @@
       <c r="P42">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -3013,13 +3426,16 @@
         <v>164.875</v>
       </c>
       <c r="D43">
-        <v>164.875</v>
-      </c>
-      <c r="E43">
-        <v>-0.15620000000000001</v>
-      </c>
-      <c r="F43" s="2">
-        <v>-8.9999999999999998E-4</v>
+        <f>SUM(C43+0.02)</f>
+        <v>164.89500000000001</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0000000000010232E-2</v>
+      </c>
+      <c r="F43" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2130401819566478E-2</v>
       </c>
       <c r="G43">
         <v>28010</v>
@@ -3036,8 +3452,13 @@
       <c r="K43">
         <v>151.47</v>
       </c>
-      <c r="L43">
-        <v>8.4700000000000006</v>
+      <c r="L43" s="4">
+        <f t="shared" si="2"/>
+        <v>160.42500000000001</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="3"/>
+        <v>2.7863487611033184</v>
       </c>
       <c r="N43">
         <v>164.875</v>
@@ -3048,8 +3469,11 @@
       <c r="P43">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -3060,13 +3484,16 @@
         <v>109.3984</v>
       </c>
       <c r="D44">
-        <v>109.3984</v>
-      </c>
-      <c r="E44">
-        <v>1.5599999999999999E-2</v>
-      </c>
-      <c r="F44" s="2">
-        <v>1E-4</v>
+        <f>SUM(C44-0.01)</f>
+        <v>109.38839999999999</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.0000000000005116E-2</v>
+      </c>
+      <c r="F44" s="3">
+        <f t="shared" si="1"/>
+        <v>-9.1409015122754216E-3</v>
       </c>
       <c r="G44">
         <v>17742</v>
@@ -3083,11 +3510,13 @@
       <c r="K44">
         <v>108.62</v>
       </c>
-      <c r="L44" s="6">
-        <v>0.94</v>
-      </c>
-      <c r="M44" s="6">
-        <v>0.3</v>
+      <c r="L44" s="4">
+        <f t="shared" si="2"/>
+        <v>109.21000000000001</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="3"/>
+        <v>0.1633550041204854</v>
       </c>
       <c r="N44">
         <v>109.3984</v>
@@ -3098,8 +3527,11 @@
       <c r="P44">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -3110,13 +3542,16 @@
         <v>130.5625</v>
       </c>
       <c r="D45">
-        <v>130.5625</v>
-      </c>
-      <c r="E45">
-        <v>3.1199999999999999E-2</v>
-      </c>
-      <c r="F45" s="2">
-        <v>2.0000000000000001E-4</v>
+        <f>SUM(C45+0.02)</f>
+        <v>130.58250000000001</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0000000000010232E-2</v>
+      </c>
+      <c r="F45" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5318334131171073E-2</v>
       </c>
       <c r="G45">
         <v>189310</v>
@@ -3133,11 +3568,13 @@
       <c r="K45">
         <v>125.48</v>
       </c>
-      <c r="L45">
-        <v>4.1399999999999997</v>
+      <c r="L45" s="4">
+        <f t="shared" si="2"/>
+        <v>129.06</v>
       </c>
       <c r="M45">
-        <v>4.42</v>
+        <f t="shared" si="3"/>
+        <v>1.179683867968393</v>
       </c>
       <c r="N45">
         <v>130.5625</v>
@@ -3148,8 +3585,11 @@
       <c r="P45">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -3160,13 +3600,16 @@
         <v>99.18</v>
       </c>
       <c r="D46">
-        <v>99.18</v>
-      </c>
-      <c r="E46">
-        <v>0.01</v>
-      </c>
-      <c r="F46" s="2">
-        <v>1E-4</v>
+        <f>SUM(C46-0.01)</f>
+        <v>99.17</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.0000000000005116E-2</v>
+      </c>
+      <c r="F46" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.008267795927114E-2</v>
       </c>
       <c r="G46">
         <v>29509</v>
@@ -3183,11 +3626,13 @@
       <c r="K46">
         <v>98.41</v>
       </c>
-      <c r="L46">
-        <v>0.42</v>
+      <c r="L46" s="4">
+        <f t="shared" si="2"/>
+        <v>98.894999999999996</v>
       </c>
       <c r="M46">
-        <v>0.73</v>
+        <f t="shared" si="3"/>
+        <v>0.2780727033722693</v>
       </c>
       <c r="N46">
         <v>99.18</v>
@@ -3198,9 +3643,18 @@
       <c r="P46">
         <v>0.01</v>
       </c>
+      <c r="Q46">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="A2:Q46">
+    <sortCondition ref="Q2:Q46"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D19" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/DataSets/PriceBlotterCommodity.xlsx
+++ b/DataSets/PriceBlotterCommodity.xlsx
@@ -1051,7 +1051,7 @@
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1723,6 +1723,15 @@
         <f t="shared" si="1"/>
         <v>1.9841269841269857</v>
       </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <v>1.512</v>
+      </c>
+      <c r="I12">
+        <v>1.512</v>
+      </c>
       <c r="J12">
         <v>1.58</v>
       </c>
@@ -1772,6 +1781,15 @@
         <f t="shared" si="1"/>
         <v>0.10889292196007673</v>
       </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <v>27.55</v>
+      </c>
+      <c r="I13">
+        <v>27.55</v>
+      </c>
       <c r="J13">
         <v>29.32</v>
       </c>
@@ -1821,6 +1839,15 @@
         <f t="shared" si="1"/>
         <v>-4.5840018336007375</v>
       </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0.43630000000000002</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0.43630000000000002</v>
+      </c>
       <c r="J14">
         <v>0.48409999999999997</v>
       </c>
@@ -2218,6 +2245,9 @@
         <f t="shared" si="1"/>
         <v>-1.4224751066863609E-2</v>
       </c>
+      <c r="G21">
+        <v>6</v>
+      </c>
       <c r="J21">
         <v>155.94999999999999</v>
       </c>
@@ -2499,6 +2529,9 @@
         <f t="shared" si="1"/>
         <v>-7.7700077700076059E-2</v>
       </c>
+      <c r="G26">
+        <v>7</v>
+      </c>
       <c r="H26">
         <v>12.89</v>
       </c>
@@ -2612,6 +2645,15 @@
         <f t="shared" si="1"/>
         <v>-6.5811122079571611E-3</v>
       </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>303.89999999999998</v>
+      </c>
+      <c r="I28">
+        <v>303.89999999999998</v>
+      </c>
       <c r="J28">
         <v>317.10000000000002</v>
       </c>
@@ -2661,6 +2703,15 @@
         <f t="shared" si="1"/>
         <v>-1.6566576931038329E-2</v>
       </c>
+      <c r="G29">
+        <v>4</v>
+      </c>
+      <c r="H29">
+        <v>120.72499999999999</v>
+      </c>
+      <c r="I29">
+        <v>120.72499999999999</v>
+      </c>
       <c r="J29">
         <v>147.97999999999999</v>
       </c>
@@ -2710,6 +2761,15 @@
         <f t="shared" si="1"/>
         <v>-1.3589264481066914E-2</v>
       </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <v>147.17500000000001</v>
+      </c>
+      <c r="I30">
+        <v>147.17500000000001</v>
+      </c>
       <c r="J30">
         <v>190</v>
       </c>
@@ -2759,6 +2819,15 @@
         <f t="shared" si="1"/>
         <v>-2.4607812980616452E-2</v>
       </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>81.275000000000006</v>
+      </c>
+      <c r="I31">
+        <v>81.275000000000006</v>
+      </c>
       <c r="J31">
         <v>83.98</v>
       </c>
@@ -3387,6 +3456,9 @@
       <c r="F42" s="3">
         <f t="shared" si="1"/>
         <v>-2.9073993312955099E-3</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
       </c>
       <c r="J42" s="4">
         <v>620.32000000000005</v>

--- a/DataSets/PriceBlotterCommodity.xlsx
+++ b/DataSets/PriceBlotterCommodity.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AdaptableTools/adaptableblotter-demo/DataSets/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26740"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500"/>
   </bookViews>
   <sheets>
     <sheet name="CommodityPrice" sheetId="2" r:id="rId1"/>
@@ -17,20 +12,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CommodityPrice!$A$2:$A$1008</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="69">
   <si>
     <t>GOLD</t>
   </si>
@@ -227,23 +222,23 @@
     <t>BidOfferSpread</t>
   </si>
   <si>
-    <t>%Change</t>
-  </si>
-  <si>
     <t>RowId</t>
   </si>
   <si>
     <t>YearStart</t>
   </si>
   <si>
-    <t>YTD%Change</t>
+    <t>PercentChange</t>
+  </si>
+  <si>
+    <t>YTDPercentChange</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,6 +369,22 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -676,7 +687,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -719,6 +730,12 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -728,7 +745,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="48">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -757,11 +774,17 @@
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -828,7 +851,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -863,7 +886,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1040,7 +1063,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1048,27 +1071,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:S46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L56" sqref="L56"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.1640625" customWidth="1"/>
-    <col min="13" max="13" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.1640625" customWidth="1"/>
+    <col min="16" max="16" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -1076,110 +1099,122 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
+        <v>0.01</v>
+      </c>
+      <c r="D2" s="2">
         <v>1281.0999999999999</v>
       </c>
-      <c r="D2">
-        <f>SUM(C2+0.02)</f>
+      <c r="E2">
+        <f>SUM(D2+0.02)</f>
         <v>1281.1199999999999</v>
       </c>
-      <c r="E2" s="2">
-        <f t="shared" ref="E2:E46" si="0">SUM(D2-C2)</f>
+      <c r="F2" s="2">
+        <v>1280.5999999999999</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1281.5999999999999</v>
+      </c>
+      <c r="H2" s="2">
+        <f t="shared" ref="H2:H46" si="0">SUM(E2-D2)</f>
         <v>1.999999999998181E-2</v>
       </c>
-      <c r="F2" s="3">
-        <f t="shared" ref="F2:F46" si="1">SUM((E2/C2)*100)</f>
+      <c r="I2" s="3">
+        <f t="shared" ref="I2:I46" si="1">SUM((H2/D2)*100)</f>
         <v>1.5611583795161824E-3</v>
       </c>
-      <c r="G2" s="2">
+      <c r="J2" s="2">
         <v>48386</v>
       </c>
-      <c r="H2" s="4">
+      <c r="K2" s="4">
         <v>1289.5</v>
       </c>
-      <c r="I2" s="4">
+      <c r="L2" s="4">
         <v>1279.0999999999999</v>
       </c>
-      <c r="J2" s="4">
+      <c r="M2" s="4">
         <v>1306</v>
       </c>
-      <c r="K2" s="4">
+      <c r="N2" s="4">
         <v>1047.2</v>
       </c>
-      <c r="L2" s="4">
-        <f t="shared" ref="L2:L46" si="2">SUM((J2+K2)/2)</f>
+      <c r="O2" s="4">
+        <f t="shared" ref="O2:O46" si="2">SUM((M2+N2)/2)</f>
         <v>1176.5999999999999</v>
       </c>
-      <c r="M2">
-        <f t="shared" ref="M2:M46" si="3">SUM(((D2-L2)/L2)*100)</f>
+      <c r="P2">
+        <f t="shared" ref="P2:P46" si="3">SUM(((E2-O2)/O2)*100)</f>
         <v>8.8832228454869959</v>
       </c>
-      <c r="N2" s="2">
+      <c r="Q2" s="2">
         <v>1280.5999999999999</v>
       </c>
-      <c r="O2" s="2">
+      <c r="R2" s="2">
         <v>1281.5999999999999</v>
       </c>
-      <c r="P2">
-        <v>0.01</v>
-      </c>
-      <c r="Q2">
+      <c r="S2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1187,57 +1222,63 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>0.01</v>
+      </c>
+      <c r="D3">
         <v>17.43</v>
       </c>
-      <c r="D3">
-        <f>SUM(C3-0.01)</f>
+      <c r="E3">
+        <f>SUM(D3-0.01)</f>
         <v>17.419999999999998</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3">
+        <v>17.43</v>
+      </c>
+      <c r="G3">
+        <v>17.43</v>
+      </c>
+      <c r="H3" s="2">
         <f t="shared" si="0"/>
         <v>-1.0000000000001563E-2</v>
       </c>
-      <c r="F3" s="3">
+      <c r="I3" s="3">
         <f t="shared" si="1"/>
         <v>-5.7372346528982009E-2</v>
       </c>
-      <c r="G3">
+      <c r="J3">
         <v>11720</v>
       </c>
-      <c r="H3">
+      <c r="K3">
         <v>17.510000000000002</v>
       </c>
-      <c r="I3">
+      <c r="L3">
         <v>17.37</v>
       </c>
-      <c r="J3">
+      <c r="M3">
         <v>18.059999999999999</v>
       </c>
-      <c r="K3">
+      <c r="N3">
         <v>13.73</v>
       </c>
-      <c r="L3" s="4">
+      <c r="O3" s="4">
         <f t="shared" si="2"/>
         <v>15.895</v>
       </c>
-      <c r="M3">
+      <c r="P3">
         <f t="shared" si="3"/>
         <v>9.5942120163573374</v>
       </c>
-      <c r="N3">
+      <c r="Q3">
         <v>17.43</v>
       </c>
-      <c r="O3">
+      <c r="R3">
         <v>17.43</v>
       </c>
-      <c r="P3">
-        <v>0.01</v>
-      </c>
-      <c r="Q3">
+      <c r="S3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1245,57 +1286,63 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>0.02</v>
+      </c>
+      <c r="D4">
         <v>2.1230000000000002</v>
       </c>
-      <c r="D4">
-        <f>SUM(C4-0.01)</f>
+      <c r="E4">
+        <f>SUM(D4-0.01)</f>
         <v>2.1130000000000004</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4">
+        <v>2.1230000000000002</v>
+      </c>
+      <c r="G4">
+        <v>2.1230000000000002</v>
+      </c>
+      <c r="H4" s="2">
         <f t="shared" si="0"/>
         <v>-9.9999999999997868E-3</v>
       </c>
-      <c r="F4" s="3">
+      <c r="I4" s="3">
         <f t="shared" si="1"/>
         <v>-0.47103155911445055</v>
       </c>
-      <c r="G4">
+      <c r="J4">
         <v>28819</v>
       </c>
-      <c r="H4">
+      <c r="K4">
         <v>2.16</v>
       </c>
-      <c r="I4">
+      <c r="L4">
         <v>2.11</v>
       </c>
-      <c r="J4">
+      <c r="M4">
         <v>2.94</v>
       </c>
-      <c r="K4">
+      <c r="N4">
         <v>1.96</v>
       </c>
-      <c r="L4" s="4">
+      <c r="O4" s="4">
         <f t="shared" si="2"/>
         <v>2.4500000000000002</v>
       </c>
-      <c r="M4">
+      <c r="P4">
         <f t="shared" si="3"/>
         <v>-13.755102040816315</v>
       </c>
-      <c r="N4">
+      <c r="Q4">
         <v>2.1230000000000002</v>
       </c>
-      <c r="O4">
+      <c r="R4">
         <v>2.1230000000000002</v>
       </c>
-      <c r="P4">
-        <v>0.02</v>
-      </c>
-      <c r="Q4">
+      <c r="S4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1303,57 +1350,63 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>0.01</v>
+      </c>
+      <c r="D5">
         <v>1071.5999999999999</v>
       </c>
-      <c r="D5">
-        <f>SUM(C5+0.02)</f>
+      <c r="E5">
+        <f>SUM(D5+0.02)</f>
         <v>1071.6199999999999</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5">
+        <v>1071.5999999999999</v>
+      </c>
+      <c r="G5">
+        <v>1071.5999999999999</v>
+      </c>
+      <c r="H5" s="2">
         <f t="shared" si="0"/>
         <v>1.999999999998181E-2</v>
       </c>
-      <c r="F5" s="3">
+      <c r="I5" s="3">
         <f t="shared" si="1"/>
         <v>1.8663680477773248E-3</v>
       </c>
-      <c r="G5">
+      <c r="J5">
         <v>3037</v>
       </c>
-      <c r="H5" s="4">
+      <c r="K5" s="4">
         <v>1081.2</v>
       </c>
-      <c r="I5" s="4">
+      <c r="L5" s="4">
         <v>1070.5</v>
       </c>
-      <c r="J5" s="4">
+      <c r="M5" s="4">
         <v>1120.5999999999999</v>
       </c>
-      <c r="K5">
+      <c r="N5">
         <v>812.4</v>
       </c>
-      <c r="L5" s="4">
+      <c r="O5" s="4">
         <f t="shared" si="2"/>
         <v>966.5</v>
       </c>
-      <c r="M5">
+      <c r="P5">
         <f t="shared" si="3"/>
         <v>10.876357992757359</v>
       </c>
-      <c r="N5">
+      <c r="Q5">
         <v>1071.5999999999999</v>
       </c>
-      <c r="O5">
+      <c r="R5">
         <v>1071.5999999999999</v>
       </c>
-      <c r="P5">
-        <v>0.01</v>
-      </c>
-      <c r="Q5">
+      <c r="S5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -1361,57 +1414,63 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>0.01</v>
+      </c>
+      <c r="D6">
         <v>600.54999999999995</v>
       </c>
-      <c r="D6">
-        <f>SUM(C6+0.02)</f>
+      <c r="E6">
+        <f>SUM(D6+0.02)</f>
         <v>600.56999999999994</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6">
+        <v>600.54999999999995</v>
+      </c>
+      <c r="G6">
+        <v>600.54999999999995</v>
+      </c>
+      <c r="H6" s="2">
         <f t="shared" si="0"/>
         <v>1.999999999998181E-2</v>
       </c>
-      <c r="F6" s="3">
+      <c r="I6" s="3">
         <f t="shared" si="1"/>
         <v>3.3302805761355114E-3</v>
       </c>
-      <c r="G6">
+      <c r="J6">
         <v>649</v>
       </c>
-      <c r="H6">
+      <c r="K6">
         <v>607.20000000000005</v>
       </c>
-      <c r="I6">
+      <c r="L6">
         <v>598.4</v>
       </c>
-      <c r="J6">
+      <c r="M6">
         <v>690</v>
       </c>
-      <c r="K6">
+      <c r="N6">
         <v>458.6</v>
       </c>
-      <c r="L6" s="4">
+      <c r="O6" s="4">
         <f t="shared" si="2"/>
         <v>574.29999999999995</v>
       </c>
-      <c r="M6">
+      <c r="P6">
         <f t="shared" si="3"/>
         <v>4.574264321783037</v>
       </c>
-      <c r="N6">
+      <c r="Q6">
         <v>600.54999999999995</v>
       </c>
-      <c r="O6">
+      <c r="R6">
         <v>600.54999999999995</v>
       </c>
-      <c r="P6">
-        <v>0.01</v>
-      </c>
-      <c r="Q6">
+      <c r="S6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1419,57 +1478,63 @@
         <v>10</v>
       </c>
       <c r="C7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D7">
         <v>45.54</v>
       </c>
-      <c r="D7">
-        <f>SUM(C7-0.01)</f>
+      <c r="E7">
+        <f>SUM(D7-0.01)</f>
         <v>45.53</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7">
+        <v>45.54</v>
+      </c>
+      <c r="G7">
+        <v>45.54</v>
+      </c>
+      <c r="H7" s="2">
         <f t="shared" si="0"/>
         <v>-9.9999999999980105E-3</v>
       </c>
-      <c r="F7" s="3">
+      <c r="I7" s="3">
         <f t="shared" si="1"/>
         <v>-2.1958717610887156E-2</v>
       </c>
-      <c r="G7">
+      <c r="J7">
         <v>107195</v>
       </c>
-      <c r="H7">
+      <c r="K7">
         <v>45.94</v>
       </c>
-      <c r="I7">
+      <c r="L7">
         <v>45</v>
       </c>
-      <c r="J7">
+      <c r="M7">
         <v>65.28</v>
       </c>
-      <c r="K7">
+      <c r="N7">
         <v>30.79</v>
       </c>
-      <c r="L7" s="4">
+      <c r="O7" s="4">
         <f t="shared" si="2"/>
         <v>48.034999999999997</v>
       </c>
-      <c r="M7">
+      <c r="P7">
         <f t="shared" si="3"/>
         <v>-5.2149474341625801</v>
       </c>
-      <c r="N7">
+      <c r="Q7">
         <v>45.54</v>
       </c>
-      <c r="O7">
+      <c r="R7">
         <v>45.54</v>
       </c>
-      <c r="P7">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="Q7">
+      <c r="S7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1477,57 +1542,63 @@
         <v>11</v>
       </c>
       <c r="C8">
+        <v>0.01</v>
+      </c>
+      <c r="D8">
         <v>46.06</v>
       </c>
-      <c r="D8">
-        <f>SUM(C8-0.01)</f>
+      <c r="E8">
+        <f>SUM(D8-0.01)</f>
         <v>46.050000000000004</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8">
+        <v>46.06</v>
+      </c>
+      <c r="G8">
+        <v>46.06</v>
+      </c>
+      <c r="H8" s="2">
         <f t="shared" si="0"/>
         <v>-9.9999999999980105E-3</v>
       </c>
-      <c r="F8" s="3">
+      <c r="I8" s="3">
         <f t="shared" si="1"/>
         <v>-2.1710811984363896E-2</v>
       </c>
-      <c r="G8">
+      <c r="J8">
         <v>59818</v>
       </c>
-      <c r="H8">
+      <c r="K8">
         <v>46.48</v>
       </c>
-      <c r="I8">
+      <c r="L8">
         <v>45.6</v>
       </c>
-      <c r="J8">
+      <c r="M8">
         <v>71.14</v>
       </c>
-      <c r="K8">
+      <c r="N8">
         <v>30.02</v>
       </c>
-      <c r="L8" s="4">
+      <c r="O8" s="4">
         <f t="shared" si="2"/>
         <v>50.58</v>
       </c>
-      <c r="M8">
+      <c r="P8">
         <f t="shared" si="3"/>
         <v>-8.9561091340450645</v>
       </c>
-      <c r="N8">
+      <c r="Q8">
         <v>46.06</v>
       </c>
-      <c r="O8">
+      <c r="R8">
         <v>46.06</v>
       </c>
-      <c r="P8">
-        <v>0.01</v>
-      </c>
-      <c r="Q8">
+      <c r="S8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1535,57 +1606,63 @@
         <v>12</v>
       </c>
       <c r="C9">
+        <v>0.02</v>
+      </c>
+      <c r="D9">
         <v>2.0939999999999999</v>
       </c>
-      <c r="D9">
-        <f>SUM(C9+0.01)</f>
+      <c r="E9">
+        <f>SUM(D9+0.01)</f>
         <v>2.1039999999999996</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9">
+        <v>2.0939999999999999</v>
+      </c>
+      <c r="G9">
+        <v>2.0939999999999999</v>
+      </c>
+      <c r="H9" s="2">
         <f t="shared" si="0"/>
         <v>9.9999999999997868E-3</v>
       </c>
-      <c r="F9" s="3">
+      <c r="I9" s="3">
         <f t="shared" si="1"/>
         <v>0.47755491881565371</v>
       </c>
-      <c r="G9">
+      <c r="J9">
         <v>2783</v>
       </c>
-      <c r="H9">
+      <c r="K9">
         <v>2.11</v>
       </c>
-      <c r="I9">
+      <c r="L9">
         <v>2.09</v>
       </c>
-      <c r="J9">
+      <c r="M9">
         <v>3.2</v>
       </c>
-      <c r="K9">
+      <c r="N9">
         <v>1.84</v>
       </c>
-      <c r="L9" s="4">
+      <c r="O9" s="4">
         <f t="shared" si="2"/>
         <v>2.52</v>
       </c>
-      <c r="M9">
+      <c r="P9">
         <f t="shared" si="3"/>
         <v>-16.50793650793652</v>
       </c>
-      <c r="N9">
+      <c r="Q9">
         <v>2.0939999999999999</v>
       </c>
-      <c r="O9">
+      <c r="R9">
         <v>2.0939999999999999</v>
       </c>
-      <c r="P9">
-        <v>0.02</v>
-      </c>
-      <c r="Q9">
+      <c r="S9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1593,57 +1670,63 @@
         <v>13</v>
       </c>
       <c r="C10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D10">
         <v>1.5085999999999999</v>
       </c>
-      <c r="D10">
-        <f>SUM(C10+0.01)</f>
+      <c r="E10">
+        <f>SUM(D10+0.01)</f>
         <v>1.5185999999999999</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10">
+        <v>1.5085999999999999</v>
+      </c>
+      <c r="G10">
+        <v>1.5085999999999999</v>
+      </c>
+      <c r="H10" s="2">
         <f t="shared" si="0"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="F10" s="3">
+      <c r="I10" s="3">
         <f t="shared" si="1"/>
         <v>0.66286623359406138</v>
       </c>
-      <c r="G10">
+      <c r="J10">
         <v>2645</v>
       </c>
-      <c r="H10">
+      <c r="K10">
         <v>1.53</v>
       </c>
-      <c r="I10">
+      <c r="L10">
         <v>1.5</v>
       </c>
-      <c r="J10">
+      <c r="M10">
         <v>2.0499999999999998</v>
       </c>
-      <c r="K10">
+      <c r="N10">
         <v>1.1499999999999999</v>
       </c>
-      <c r="L10" s="4">
+      <c r="O10" s="4">
         <f t="shared" si="2"/>
         <v>1.5999999999999999</v>
       </c>
-      <c r="M10">
+      <c r="P10">
         <f t="shared" si="3"/>
         <v>-5.0874999999999959</v>
       </c>
-      <c r="N10">
+      <c r="Q10">
         <v>1.5085999999999999</v>
       </c>
-      <c r="O10">
+      <c r="R10">
         <v>1.5085999999999999</v>
       </c>
-      <c r="P10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="Q10">
+      <c r="S10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1651,57 +1734,63 @@
         <v>14</v>
       </c>
       <c r="C11">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D11">
         <v>1.3473999999999999</v>
       </c>
-      <c r="D11">
-        <f>SUM(C11+0.01)</f>
+      <c r="E11">
+        <f>SUM(D11+0.01)</f>
         <v>1.3573999999999999</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11">
+        <v>1.3473999999999999</v>
+      </c>
+      <c r="G11">
+        <v>1.3473999999999999</v>
+      </c>
+      <c r="H11" s="2">
         <f t="shared" si="0"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="F11" s="3">
+      <c r="I11" s="3">
         <f t="shared" si="1"/>
         <v>0.74217010538815564</v>
       </c>
-      <c r="G11">
+      <c r="J11">
         <v>2971</v>
       </c>
-      <c r="H11">
+      <c r="K11">
         <v>1.36</v>
       </c>
-      <c r="I11">
+      <c r="L11">
         <v>1.34</v>
       </c>
-      <c r="J11">
+      <c r="M11">
         <v>2.11</v>
       </c>
-      <c r="K11">
+      <c r="N11">
         <v>0.92</v>
       </c>
-      <c r="L11" s="4">
+      <c r="O11" s="4">
         <f t="shared" si="2"/>
         <v>1.5149999999999999</v>
       </c>
-      <c r="M11">
+      <c r="P11">
         <f t="shared" si="3"/>
         <v>-10.402640264026401</v>
       </c>
-      <c r="N11">
+      <c r="Q11">
         <v>1.3473999999999999</v>
       </c>
-      <c r="O11">
+      <c r="R11">
         <v>1.3473999999999999</v>
       </c>
-      <c r="P11">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="Q11">
+      <c r="S11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1709,57 +1798,63 @@
         <v>15</v>
       </c>
       <c r="C12">
+        <v>0.01</v>
+      </c>
+      <c r="D12">
         <v>1.512</v>
       </c>
-      <c r="D12">
-        <f>SUM(C12+0.03)</f>
+      <c r="E12">
+        <f>SUM(D12+0.03)</f>
         <v>1.542</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12">
+        <v>1.512</v>
+      </c>
+      <c r="G12">
+        <v>1.512</v>
+      </c>
+      <c r="H12" s="2">
         <f t="shared" si="0"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="F12" s="3">
+      <c r="I12" s="3">
         <f t="shared" si="1"/>
         <v>1.9841269841269857</v>
       </c>
-      <c r="G12">
+      <c r="J12">
         <v>11</v>
       </c>
-      <c r="H12">
+      <c r="K12">
         <v>1.512</v>
       </c>
-      <c r="I12">
+      <c r="L12">
         <v>1.512</v>
       </c>
-      <c r="J12">
+      <c r="M12">
         <v>1.58</v>
       </c>
-      <c r="K12">
+      <c r="N12">
         <v>1.37</v>
       </c>
-      <c r="L12" s="4">
+      <c r="O12" s="4">
         <f t="shared" si="2"/>
         <v>1.4750000000000001</v>
       </c>
-      <c r="M12">
+      <c r="P12">
         <f t="shared" si="3"/>
         <v>4.542372881355929</v>
       </c>
-      <c r="N12">
+      <c r="Q12">
         <v>1.512</v>
       </c>
-      <c r="O12">
+      <c r="R12">
         <v>1.512</v>
       </c>
-      <c r="P12">
-        <v>0.01</v>
-      </c>
-      <c r="Q12">
+      <c r="S12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1767,115 +1862,127 @@
         <v>16</v>
       </c>
       <c r="C13">
+        <v>0.02</v>
+      </c>
+      <c r="D13">
         <v>27.55</v>
       </c>
-      <c r="D13">
-        <f>SUM(C13+0.03)</f>
+      <c r="E13">
+        <f>SUM(D13+0.03)</f>
         <v>27.580000000000002</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13">
+        <v>27.55</v>
+      </c>
+      <c r="G13">
+        <v>27.55</v>
+      </c>
+      <c r="H13" s="2">
         <f t="shared" si="0"/>
         <v>3.0000000000001137E-2</v>
       </c>
-      <c r="F13" s="3">
+      <c r="I13" s="3">
         <f t="shared" si="1"/>
         <v>0.10889292196007673</v>
       </c>
-      <c r="G13">
+      <c r="J13">
         <v>12</v>
       </c>
-      <c r="H13">
+      <c r="K13">
         <v>27.55</v>
       </c>
-      <c r="I13">
+      <c r="L13">
         <v>27.55</v>
       </c>
-      <c r="J13">
+      <c r="M13">
         <v>29.32</v>
       </c>
-      <c r="K13">
+      <c r="N13">
         <v>21.28</v>
       </c>
-      <c r="L13" s="4">
+      <c r="O13" s="4">
         <f t="shared" si="2"/>
         <v>25.3</v>
       </c>
-      <c r="M13">
+      <c r="P13">
         <f t="shared" si="3"/>
         <v>9.0118577075098862</v>
       </c>
-      <c r="N13">
+      <c r="Q13">
         <v>27.55</v>
       </c>
-      <c r="O13">
+      <c r="R13">
         <v>27.55</v>
       </c>
-      <c r="P13">
-        <v>0.02</v>
-      </c>
-      <c r="Q13">
+      <c r="S13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D14" s="5">
         <v>0.43630000000000002</v>
       </c>
-      <c r="D14" s="5">
-        <f>SUM(C14-0.02)</f>
+      <c r="E14" s="5">
+        <f>SUM(D14-0.02)</f>
         <v>0.4163</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14">
+        <v>0.43630000000000002</v>
+      </c>
+      <c r="G14">
+        <v>0.43630000000000002</v>
+      </c>
+      <c r="H14" s="2">
         <f t="shared" si="0"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="F14" s="3">
+      <c r="I14" s="3">
         <f t="shared" si="1"/>
         <v>-4.5840018336007375</v>
       </c>
-      <c r="G14">
+      <c r="J14">
         <v>3</v>
       </c>
-      <c r="H14" s="5">
+      <c r="K14" s="5">
         <v>0.43630000000000002</v>
       </c>
-      <c r="I14" s="5">
+      <c r="L14" s="5">
         <v>0.43630000000000002</v>
       </c>
-      <c r="J14">
+      <c r="M14">
         <v>0.48409999999999997</v>
       </c>
-      <c r="K14">
+      <c r="N14">
         <v>0.39539999999999997</v>
       </c>
-      <c r="L14" s="4">
+      <c r="O14" s="4">
         <f t="shared" si="2"/>
         <v>0.43974999999999997</v>
       </c>
-      <c r="M14">
+      <c r="P14">
         <f t="shared" si="3"/>
         <v>-5.3325753268902725</v>
       </c>
-      <c r="N14">
+      <c r="Q14">
         <v>0.43630000000000002</v>
       </c>
-      <c r="O14">
+      <c r="R14">
         <v>0.43630000000000002</v>
       </c>
-      <c r="P14">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="Q14">
+      <c r="S14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1883,57 +1990,63 @@
         <v>19</v>
       </c>
       <c r="C15">
+        <v>0.01</v>
+      </c>
+      <c r="D15">
         <v>465.5</v>
       </c>
-      <c r="D15">
-        <f>SUM(C15+0.02)</f>
+      <c r="E15">
+        <f>SUM(D15+0.02)</f>
         <v>465.52</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F15">
+        <v>465.5</v>
+      </c>
+      <c r="G15">
+        <v>465.5</v>
+      </c>
+      <c r="H15" s="2">
         <f t="shared" si="0"/>
         <v>1.999999999998181E-2</v>
       </c>
-      <c r="F15" s="3">
+      <c r="I15" s="3">
         <f t="shared" si="1"/>
         <v>4.2964554242710656E-3</v>
       </c>
-      <c r="G15">
+      <c r="J15">
         <v>4318</v>
       </c>
-      <c r="H15">
+      <c r="K15">
         <v>467</v>
       </c>
-      <c r="I15">
+      <c r="L15">
         <v>463.25</v>
       </c>
-      <c r="J15">
+      <c r="M15">
         <v>628.5</v>
       </c>
-      <c r="K15">
+      <c r="N15">
         <v>449.5</v>
       </c>
-      <c r="L15" s="4">
+      <c r="O15" s="4">
         <f t="shared" si="2"/>
         <v>539</v>
       </c>
-      <c r="M15">
+      <c r="P15">
         <f t="shared" si="3"/>
         <v>-13.632653061224492</v>
       </c>
-      <c r="N15">
+      <c r="Q15">
         <v>465.5</v>
       </c>
-      <c r="O15">
+      <c r="R15">
         <v>465.5</v>
       </c>
-      <c r="P15">
-        <v>0.01</v>
-      </c>
-      <c r="Q15">
+      <c r="S15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1941,57 +2054,63 @@
         <v>20</v>
       </c>
       <c r="C16">
+        <v>0.01</v>
+      </c>
+      <c r="D16">
         <v>379.5</v>
       </c>
-      <c r="D16">
-        <f>SUM(C16+0.02)</f>
+      <c r="E16">
+        <f>SUM(D16+0.02)</f>
         <v>379.52</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F16">
+        <v>379.5</v>
+      </c>
+      <c r="G16">
+        <v>379.5</v>
+      </c>
+      <c r="H16" s="2">
         <f t="shared" si="0"/>
         <v>1.999999999998181E-2</v>
       </c>
-      <c r="F16" s="3">
+      <c r="I16" s="3">
         <f t="shared" si="1"/>
         <v>5.2700922266091721E-3</v>
       </c>
-      <c r="G16">
+      <c r="J16">
         <v>11265</v>
       </c>
-      <c r="H16">
+      <c r="K16">
         <v>381</v>
       </c>
-      <c r="I16">
+      <c r="L16">
         <v>377.75</v>
       </c>
-      <c r="J16">
+      <c r="M16">
         <v>471.25</v>
       </c>
-      <c r="K16">
+      <c r="N16">
         <v>351.25</v>
       </c>
-      <c r="L16" s="4">
+      <c r="O16" s="4">
         <f t="shared" si="2"/>
         <v>411.25</v>
       </c>
-      <c r="M16">
+      <c r="P16">
         <f t="shared" si="3"/>
         <v>-7.7155015197568426</v>
       </c>
-      <c r="N16">
+      <c r="Q16">
         <v>379.5</v>
       </c>
-      <c r="O16">
+      <c r="R16">
         <v>379.5</v>
       </c>
-      <c r="P16">
-        <v>0.01</v>
-      </c>
-      <c r="Q16">
+      <c r="S16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1999,57 +2118,63 @@
         <v>21</v>
       </c>
       <c r="C17">
+        <v>0.01</v>
+      </c>
+      <c r="D17">
         <v>15.68</v>
       </c>
-      <c r="D17">
-        <f>SUM(C17-0.01)</f>
+      <c r="E17">
+        <f>SUM(D17-0.01)</f>
         <v>15.67</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F17">
+        <v>15.68</v>
+      </c>
+      <c r="G17">
+        <v>15.68</v>
+      </c>
+      <c r="H17" s="2">
         <f t="shared" si="0"/>
         <v>-9.9999999999997868E-3</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <f t="shared" si="1"/>
         <v>-6.3775510204080274E-2</v>
       </c>
-      <c r="G17">
+      <c r="J17">
         <v>4948</v>
       </c>
-      <c r="H17">
+      <c r="K17">
         <v>15.7</v>
       </c>
-      <c r="I17">
+      <c r="L17">
         <v>15.58</v>
       </c>
-      <c r="J17">
+      <c r="M17">
         <v>16.87</v>
       </c>
-      <c r="K17">
+      <c r="N17">
         <v>11.37</v>
       </c>
-      <c r="L17" s="4">
+      <c r="O17" s="4">
         <f t="shared" si="2"/>
         <v>14.120000000000001</v>
       </c>
-      <c r="M17">
+      <c r="P17">
         <f t="shared" si="3"/>
         <v>10.977337110481578</v>
       </c>
-      <c r="N17">
+      <c r="Q17">
         <v>15.68</v>
       </c>
-      <c r="O17">
+      <c r="R17">
         <v>15.68</v>
       </c>
-      <c r="P17">
-        <v>0.01</v>
-      </c>
-      <c r="Q17">
+      <c r="S17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -2057,57 +2182,63 @@
         <v>22</v>
       </c>
       <c r="C18">
+        <v>0.01</v>
+      </c>
+      <c r="D18">
         <v>1038</v>
       </c>
-      <c r="D18">
-        <f>SUM(C18+0.02)</f>
+      <c r="E18">
+        <f>SUM(D18+0.02)</f>
         <v>1038.02</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F18">
+        <v>1038</v>
+      </c>
+      <c r="G18">
+        <v>1038</v>
+      </c>
+      <c r="H18" s="2">
         <f t="shared" si="0"/>
         <v>1.999999999998181E-2</v>
       </c>
-      <c r="F18" s="3">
+      <c r="I18" s="3">
         <f t="shared" si="1"/>
         <v>1.9267822736013303E-3</v>
       </c>
-      <c r="G18">
+      <c r="J18">
         <v>20355</v>
       </c>
-      <c r="H18" s="4">
+      <c r="K18" s="4">
         <v>1044</v>
       </c>
-      <c r="I18" s="4">
+      <c r="L18" s="4">
         <v>1031.75</v>
       </c>
-      <c r="J18" s="4">
+      <c r="M18" s="4">
         <v>1057</v>
       </c>
-      <c r="K18">
+      <c r="N18">
         <v>859.5</v>
       </c>
-      <c r="L18" s="4">
+      <c r="O18" s="4">
         <f t="shared" si="2"/>
         <v>958.25</v>
       </c>
-      <c r="M18">
+      <c r="P18">
         <f t="shared" si="3"/>
         <v>8.3245499608661611</v>
       </c>
-      <c r="N18">
+      <c r="Q18">
         <v>1038</v>
       </c>
-      <c r="O18">
+      <c r="R18">
         <v>1038</v>
       </c>
-      <c r="P18">
-        <v>0.01</v>
-      </c>
-      <c r="Q18">
+      <c r="S18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -2115,57 +2246,63 @@
         <v>23</v>
       </c>
       <c r="C19">
+        <v>0.01</v>
+      </c>
+      <c r="D19">
         <v>33.26</v>
       </c>
-      <c r="D19">
-        <f>SUM(C19-0.01)</f>
+      <c r="E19">
+        <f>SUM(D19-0.01)</f>
         <v>33.25</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F19">
+        <v>33.26</v>
+      </c>
+      <c r="G19">
+        <v>33.26</v>
+      </c>
+      <c r="H19" s="2">
         <f t="shared" si="0"/>
         <v>-9.9999999999980105E-3</v>
       </c>
-      <c r="F19" s="3">
+      <c r="I19" s="3">
         <f t="shared" si="1"/>
         <v>-3.0066145520138341E-2</v>
       </c>
-      <c r="G19">
+      <c r="J19">
         <v>10591</v>
       </c>
-      <c r="H19">
+      <c r="K19">
         <v>33.51</v>
       </c>
-      <c r="I19">
+      <c r="L19">
         <v>33.06</v>
       </c>
-      <c r="J19">
+      <c r="M19">
         <v>35.43</v>
       </c>
-      <c r="K19">
+      <c r="N19">
         <v>26.61</v>
       </c>
-      <c r="L19" s="4">
+      <c r="O19" s="4">
         <f t="shared" si="2"/>
         <v>31.02</v>
       </c>
-      <c r="M19">
+      <c r="P19">
         <f t="shared" si="3"/>
         <v>7.1889103803997436</v>
       </c>
-      <c r="N19">
+      <c r="Q19">
         <v>33.26</v>
       </c>
-      <c r="O19">
+      <c r="R19">
         <v>33.26</v>
       </c>
-      <c r="P19">
-        <v>0.01</v>
-      </c>
-      <c r="Q19">
+      <c r="S19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -2173,57 +2310,63 @@
         <v>24</v>
       </c>
       <c r="C20">
+        <v>0.01</v>
+      </c>
+      <c r="D20">
         <v>342.6</v>
       </c>
-      <c r="D20">
-        <f>SUM(C20+0.02)</f>
+      <c r="E20">
+        <f>SUM(D20+0.02)</f>
         <v>342.62</v>
       </c>
-      <c r="E20" s="2">
+      <c r="F20">
+        <v>342.6</v>
+      </c>
+      <c r="G20">
+        <v>342.6</v>
+      </c>
+      <c r="H20" s="2">
         <f t="shared" si="0"/>
         <v>1.999999999998181E-2</v>
       </c>
-      <c r="F20" s="3">
+      <c r="I20" s="3">
         <f t="shared" si="1"/>
         <v>5.8377116170408088E-3</v>
       </c>
-      <c r="G20">
+      <c r="J20">
         <v>5646</v>
       </c>
-      <c r="H20">
+      <c r="K20">
         <v>345.4</v>
       </c>
-      <c r="I20">
+      <c r="L20">
         <v>340.3</v>
       </c>
-      <c r="J20">
+      <c r="M20">
         <v>353.4</v>
       </c>
-      <c r="K20">
+      <c r="N20">
         <v>261.7</v>
       </c>
-      <c r="L20" s="4">
+      <c r="O20" s="4">
         <f t="shared" si="2"/>
         <v>307.54999999999995</v>
       </c>
-      <c r="M20">
+      <c r="P20">
         <f t="shared" si="3"/>
         <v>11.403023898553098</v>
       </c>
-      <c r="N20">
+      <c r="Q20">
         <v>342.6</v>
       </c>
-      <c r="O20">
+      <c r="R20">
         <v>342.6</v>
       </c>
-      <c r="P20">
-        <v>0.01</v>
-      </c>
-      <c r="Q20">
+      <c r="S20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -2231,51 +2374,57 @@
         <v>25</v>
       </c>
       <c r="C21">
+        <v>0.01</v>
+      </c>
+      <c r="D21">
         <v>140.6</v>
       </c>
-      <c r="D21" s="5">
-        <f>SUM(C21-0.02)</f>
+      <c r="E21" s="5">
+        <f>SUM(D21-0.02)</f>
         <v>140.57999999999998</v>
       </c>
-      <c r="E21" s="2">
+      <c r="F21">
+        <v>140.6</v>
+      </c>
+      <c r="G21">
+        <v>140.6</v>
+      </c>
+      <c r="H21" s="2">
         <f t="shared" si="0"/>
         <v>-2.0000000000010232E-2</v>
       </c>
-      <c r="F21" s="3">
+      <c r="I21" s="3">
         <f t="shared" si="1"/>
         <v>-1.4224751066863609E-2</v>
       </c>
-      <c r="G21">
+      <c r="J21">
         <v>6</v>
       </c>
-      <c r="J21">
+      <c r="M21">
         <v>155.94999999999999</v>
       </c>
-      <c r="K21">
+      <c r="N21">
         <v>113</v>
       </c>
-      <c r="L21" s="4">
+      <c r="O21" s="4">
         <f t="shared" si="2"/>
         <v>134.47499999999999</v>
       </c>
-      <c r="M21">
+      <c r="P21">
         <f t="shared" si="3"/>
         <v>4.5398773006134894</v>
       </c>
-      <c r="N21">
+      <c r="Q21">
         <v>140.6</v>
       </c>
-      <c r="O21">
+      <c r="R21">
         <v>140.6</v>
       </c>
-      <c r="P21">
-        <v>0.01</v>
-      </c>
-      <c r="Q21">
+      <c r="S21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -2283,57 +2432,63 @@
         <v>26</v>
       </c>
       <c r="C22">
+        <v>0.01</v>
+      </c>
+      <c r="D22">
         <v>125.7</v>
       </c>
-      <c r="D22">
-        <f>SUM(C22-0.01)</f>
+      <c r="E22">
+        <f>SUM(D22-0.01)</f>
         <v>125.69</v>
       </c>
-      <c r="E22" s="2">
+      <c r="F22">
+        <v>125.7</v>
+      </c>
+      <c r="G22">
+        <v>125.7</v>
+      </c>
+      <c r="H22" s="2">
         <f t="shared" si="0"/>
         <v>-1.0000000000005116E-2</v>
       </c>
-      <c r="F22" s="3">
+      <c r="I22" s="3">
         <f t="shared" si="1"/>
         <v>-7.9554494828998519E-3</v>
       </c>
-      <c r="G22">
+      <c r="J22">
         <v>1654</v>
       </c>
-      <c r="H22">
+      <c r="K22">
         <v>125.8</v>
       </c>
-      <c r="I22">
+      <c r="L22">
         <v>125</v>
       </c>
-      <c r="J22">
+      <c r="M22">
         <v>155.75</v>
       </c>
-      <c r="K22">
+      <c r="N22">
         <v>115.35</v>
       </c>
-      <c r="L22" s="4">
+      <c r="O22" s="4">
         <f t="shared" si="2"/>
         <v>135.55000000000001</v>
       </c>
-      <c r="M22">
+      <c r="P22">
         <f t="shared" si="3"/>
         <v>-7.2740686093692455</v>
       </c>
-      <c r="N22">
+      <c r="Q22">
         <v>125.7</v>
       </c>
-      <c r="O22">
+      <c r="R22">
         <v>125.7</v>
       </c>
-      <c r="P22">
-        <v>0.01</v>
-      </c>
-      <c r="Q22">
+      <c r="S22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -2341,57 +2496,63 @@
         <v>27</v>
       </c>
       <c r="C23">
+        <v>0.01</v>
+      </c>
+      <c r="D23">
         <v>3076</v>
       </c>
-      <c r="D23">
-        <f>SUM(C23+0.03)</f>
+      <c r="E23">
+        <f>SUM(D23+0.03)</f>
         <v>3076.03</v>
       </c>
-      <c r="E23" s="2">
+      <c r="F23">
+        <v>3076</v>
+      </c>
+      <c r="G23">
+        <v>3076</v>
+      </c>
+      <c r="H23" s="2">
         <f t="shared" si="0"/>
         <v>3.0000000000200089E-2</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
         <f t="shared" si="1"/>
         <v>9.7529258778283781E-4</v>
       </c>
-      <c r="G23">
+      <c r="J23">
         <v>978</v>
       </c>
-      <c r="H23" s="4">
+      <c r="K23" s="4">
         <v>3078</v>
       </c>
-      <c r="I23" s="4">
+      <c r="L23" s="4">
         <v>3066</v>
       </c>
-      <c r="J23" s="4">
+      <c r="M23" s="4">
         <v>3406</v>
       </c>
-      <c r="K23" s="4">
+      <c r="N23" s="4">
         <v>2746</v>
       </c>
-      <c r="L23" s="4">
+      <c r="O23" s="4">
         <f t="shared" si="2"/>
         <v>3076</v>
       </c>
-      <c r="M23">
+      <c r="P23">
         <f t="shared" si="3"/>
         <v>9.7529258778283781E-4</v>
       </c>
-      <c r="N23">
+      <c r="Q23">
         <v>3076</v>
       </c>
-      <c r="O23">
+      <c r="R23">
         <v>3076</v>
       </c>
-      <c r="P23">
-        <v>0.01</v>
-      </c>
-      <c r="Q23">
+      <c r="S23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -2399,57 +2560,63 @@
         <v>28</v>
       </c>
       <c r="C24">
+        <v>0.01</v>
+      </c>
+      <c r="D24">
         <v>11.244999999999999</v>
       </c>
-      <c r="D24">
-        <f>SUM(C24-0.01)</f>
+      <c r="E24">
+        <f>SUM(D24-0.01)</f>
         <v>11.234999999999999</v>
       </c>
-      <c r="E24" s="2">
+      <c r="F24">
+        <v>11.244999999999999</v>
+      </c>
+      <c r="G24">
+        <v>11.244999999999999</v>
+      </c>
+      <c r="H24" s="2">
         <f t="shared" si="0"/>
         <v>-9.9999999999997868E-3</v>
       </c>
-      <c r="F24" s="3">
+      <c r="I24" s="3">
         <f t="shared" si="1"/>
         <v>-8.8928412627832701E-2</v>
       </c>
-      <c r="G24">
+      <c r="J24">
         <v>218</v>
       </c>
-      <c r="H24">
+      <c r="K24">
         <v>11.38</v>
       </c>
-      <c r="I24">
+      <c r="L24">
         <v>10.76</v>
       </c>
-      <c r="J24">
+      <c r="M24">
         <v>14.14</v>
       </c>
-      <c r="K24">
+      <c r="N24">
         <v>9.6999999999999993</v>
       </c>
-      <c r="L24" s="4">
+      <c r="O24" s="4">
         <f t="shared" si="2"/>
         <v>11.92</v>
       </c>
-      <c r="M24">
+      <c r="P24">
         <f t="shared" si="3"/>
         <v>-5.7466442953020174</v>
       </c>
-      <c r="N24">
+      <c r="Q24">
         <v>11.244999999999999</v>
       </c>
-      <c r="O24">
+      <c r="R24">
         <v>11.244999999999999</v>
       </c>
-      <c r="P24">
-        <v>0.01</v>
-      </c>
-      <c r="Q24">
+      <c r="S24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -2457,57 +2624,63 @@
         <v>29</v>
       </c>
       <c r="C25">
+        <v>0.01</v>
+      </c>
+      <c r="D25">
         <v>194.5</v>
       </c>
-      <c r="D25">
-        <f>SUM(C25+0.02)</f>
+      <c r="E25">
+        <f>SUM(D25+0.02)</f>
         <v>194.52</v>
       </c>
-      <c r="E25" s="2">
+      <c r="F25">
+        <v>194.5</v>
+      </c>
+      <c r="G25">
+        <v>194.5</v>
+      </c>
+      <c r="H25" s="2">
         <f t="shared" si="0"/>
         <v>2.0000000000010232E-2</v>
       </c>
-      <c r="F25" s="3">
+      <c r="I25" s="3">
         <f t="shared" si="1"/>
         <v>1.0282776349619657E-2</v>
       </c>
-      <c r="G25">
+      <c r="J25">
         <v>62</v>
       </c>
-      <c r="H25">
+      <c r="K25">
         <v>195.75</v>
       </c>
-      <c r="I25">
+      <c r="L25">
         <v>194</v>
       </c>
-      <c r="J25">
+      <c r="M25">
         <v>241.25</v>
       </c>
-      <c r="K25">
+      <c r="N25">
         <v>183.75</v>
       </c>
-      <c r="L25" s="4">
+      <c r="O25" s="4">
         <f t="shared" si="2"/>
         <v>212.5</v>
       </c>
-      <c r="M25">
+      <c r="P25">
         <f t="shared" si="3"/>
         <v>-8.4611764705882297</v>
       </c>
-      <c r="N25">
+      <c r="Q25">
         <v>194.5</v>
       </c>
-      <c r="O25">
+      <c r="R25">
         <v>194.5</v>
       </c>
-      <c r="P25">
-        <v>0.01</v>
-      </c>
-      <c r="Q25">
+      <c r="S25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -2515,57 +2688,63 @@
         <v>30</v>
       </c>
       <c r="C26">
+        <v>0.01</v>
+      </c>
+      <c r="D26">
         <v>12.87</v>
       </c>
-      <c r="D26">
-        <f>SUM(C26-0.01)</f>
+      <c r="E26">
+        <f>SUM(D26-0.01)</f>
         <v>12.86</v>
       </c>
-      <c r="E26" s="2">
+      <c r="F26">
+        <v>12.87</v>
+      </c>
+      <c r="G26">
+        <v>12.87</v>
+      </c>
+      <c r="H26" s="2">
         <f t="shared" si="0"/>
         <v>-9.9999999999997868E-3</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
         <f t="shared" si="1"/>
         <v>-7.7700077700076059E-2</v>
       </c>
-      <c r="G26">
+      <c r="J26">
         <v>7</v>
       </c>
-      <c r="H26">
+      <c r="K26">
         <v>12.89</v>
       </c>
-      <c r="I26">
+      <c r="L26">
         <v>12.81</v>
       </c>
-      <c r="J26">
+      <c r="M26">
         <v>16.96</v>
       </c>
-      <c r="K26">
+      <c r="N26">
         <v>12.81</v>
       </c>
-      <c r="L26" s="4">
+      <c r="O26" s="4">
         <f t="shared" si="2"/>
         <v>14.885000000000002</v>
       </c>
-      <c r="M26">
+      <c r="P26">
         <f t="shared" si="3"/>
         <v>-13.604299630500517</v>
       </c>
-      <c r="N26">
+      <c r="Q26">
         <v>12.87</v>
       </c>
-      <c r="O26">
+      <c r="R26">
         <v>12.87</v>
       </c>
-      <c r="P26">
-        <v>0.01</v>
-      </c>
-      <c r="Q26">
+      <c r="S26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -2573,57 +2752,63 @@
         <v>58</v>
       </c>
       <c r="C27">
+        <v>0.01</v>
+      </c>
+      <c r="D27">
         <v>61.77</v>
       </c>
-      <c r="D27">
-        <f>SUM(C27-0.01)</f>
+      <c r="E27">
+        <f>SUM(D27-0.01)</f>
         <v>61.760000000000005</v>
       </c>
-      <c r="E27" s="2">
+      <c r="F27">
+        <v>61.77</v>
+      </c>
+      <c r="G27">
+        <v>61.77</v>
+      </c>
+      <c r="H27" s="2">
         <f t="shared" si="0"/>
         <v>-9.9999999999980105E-3</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
         <f t="shared" si="1"/>
         <v>-1.6189088554311171E-2</v>
       </c>
-      <c r="G27">
+      <c r="J27">
         <v>3612</v>
       </c>
-      <c r="H27">
+      <c r="K27">
         <v>62.06</v>
       </c>
-      <c r="I27">
+      <c r="L27">
         <v>61.32</v>
       </c>
-      <c r="J27">
+      <c r="M27">
         <v>67.59</v>
       </c>
-      <c r="K27">
+      <c r="N27">
         <v>54.33</v>
       </c>
-      <c r="L27" s="4">
+      <c r="O27" s="4">
         <f t="shared" si="2"/>
         <v>60.96</v>
       </c>
-      <c r="M27">
+      <c r="P27">
         <f t="shared" si="3"/>
         <v>1.3123359580052563</v>
       </c>
-      <c r="N27">
+      <c r="Q27">
         <v>61.77</v>
       </c>
-      <c r="O27">
+      <c r="R27">
         <v>61.77</v>
       </c>
-      <c r="P27">
-        <v>0.01</v>
-      </c>
-      <c r="Q27">
+      <c r="S27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -2631,57 +2816,63 @@
         <v>31</v>
       </c>
       <c r="C28">
+        <v>0.01</v>
+      </c>
+      <c r="D28">
         <v>303.89999999999998</v>
       </c>
-      <c r="D28" s="5">
-        <f>SUM(C28-0.02)</f>
+      <c r="E28" s="5">
+        <f>SUM(D28-0.02)</f>
         <v>303.88</v>
       </c>
-      <c r="E28" s="2">
+      <c r="F28">
+        <v>303.89999999999998</v>
+      </c>
+      <c r="G28">
+        <v>303.89999999999998</v>
+      </c>
+      <c r="H28" s="2">
         <f t="shared" si="0"/>
         <v>-1.999999999998181E-2</v>
       </c>
-      <c r="F28" s="3">
+      <c r="I28" s="3">
         <f t="shared" si="1"/>
         <v>-6.5811122079571611E-3</v>
       </c>
-      <c r="G28">
+      <c r="J28">
         <v>1</v>
       </c>
-      <c r="H28">
+      <c r="K28">
         <v>303.89999999999998</v>
       </c>
-      <c r="I28">
+      <c r="L28">
         <v>303.89999999999998</v>
       </c>
-      <c r="J28">
+      <c r="M28">
         <v>317.10000000000002</v>
       </c>
-      <c r="K28">
+      <c r="N28">
         <v>236</v>
       </c>
-      <c r="L28" s="4">
+      <c r="O28" s="4">
         <f t="shared" si="2"/>
         <v>276.55</v>
       </c>
-      <c r="M28">
+      <c r="P28">
         <f t="shared" si="3"/>
         <v>9.8824805640932869</v>
       </c>
-      <c r="N28">
+      <c r="Q28">
         <v>303.89999999999998</v>
       </c>
-      <c r="O28">
+      <c r="R28">
         <v>303.89999999999998</v>
       </c>
-      <c r="P28">
-        <v>0.01</v>
-      </c>
-      <c r="Q28">
+      <c r="S28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -2689,57 +2880,63 @@
         <v>33</v>
       </c>
       <c r="C29">
+        <v>0.01</v>
+      </c>
+      <c r="D29">
         <v>120.72499999999999</v>
       </c>
-      <c r="D29" s="5">
-        <f>SUM(C29-0.02)</f>
+      <c r="E29" s="5">
+        <f>SUM(D29-0.02)</f>
         <v>120.705</v>
       </c>
-      <c r="E29" s="2">
+      <c r="F29">
+        <v>120.72499999999999</v>
+      </c>
+      <c r="G29">
+        <v>120.72499999999999</v>
+      </c>
+      <c r="H29" s="2">
         <f t="shared" si="0"/>
         <v>-1.9999999999996021E-2</v>
       </c>
-      <c r="F29" s="3">
+      <c r="I29" s="3">
         <f t="shared" si="1"/>
         <v>-1.6566576931038329E-2</v>
       </c>
-      <c r="G29">
+      <c r="J29">
         <v>4</v>
       </c>
-      <c r="H29">
+      <c r="K29">
         <v>120.72499999999999</v>
       </c>
-      <c r="I29">
+      <c r="L29">
         <v>120.72499999999999</v>
       </c>
-      <c r="J29">
+      <c r="M29">
         <v>147.97999999999999</v>
       </c>
-      <c r="K29">
+      <c r="N29">
         <v>113.9</v>
       </c>
-      <c r="L29" s="4">
+      <c r="O29" s="4">
         <f t="shared" si="2"/>
         <v>130.94</v>
       </c>
-      <c r="M29">
+      <c r="P29">
         <f t="shared" si="3"/>
         <v>-7.8165572017718041</v>
       </c>
-      <c r="N29">
+      <c r="Q29">
         <v>120.72499999999999</v>
       </c>
-      <c r="O29">
+      <c r="R29">
         <v>120.72499999999999</v>
       </c>
-      <c r="P29">
-        <v>0.01</v>
-      </c>
-      <c r="Q29">
+      <c r="S29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -2747,57 +2944,63 @@
         <v>34</v>
       </c>
       <c r="C30">
+        <v>0.01</v>
+      </c>
+      <c r="D30">
         <v>147.17500000000001</v>
       </c>
-      <c r="D30" s="5">
-        <f>SUM(C30-0.02)</f>
+      <c r="E30" s="5">
+        <f>SUM(D30-0.02)</f>
         <v>147.155</v>
       </c>
-      <c r="E30" s="2">
+      <c r="F30">
+        <v>147.17500000000001</v>
+      </c>
+      <c r="G30">
+        <v>147.17500000000001</v>
+      </c>
+      <c r="H30" s="2">
         <f t="shared" si="0"/>
         <v>-2.0000000000010232E-2</v>
       </c>
-      <c r="F30" s="3">
+      <c r="I30" s="3">
         <f t="shared" si="1"/>
         <v>-1.3589264481066914E-2</v>
       </c>
-      <c r="G30">
+      <c r="J30">
         <v>3</v>
       </c>
-      <c r="H30">
+      <c r="K30">
         <v>147.17500000000001</v>
       </c>
-      <c r="I30">
+      <c r="L30">
         <v>147.17500000000001</v>
       </c>
-      <c r="J30">
+      <c r="M30">
         <v>190</v>
       </c>
-      <c r="K30">
+      <c r="N30">
         <v>138.1</v>
       </c>
-      <c r="L30" s="4">
+      <c r="O30" s="4">
         <f t="shared" si="2"/>
         <v>164.05</v>
       </c>
-      <c r="M30">
+      <c r="P30">
         <f t="shared" si="3"/>
         <v>-10.298689423956116</v>
       </c>
-      <c r="N30">
+      <c r="Q30">
         <v>147.17500000000001</v>
       </c>
-      <c r="O30">
+      <c r="R30">
         <v>147.17500000000001</v>
       </c>
-      <c r="P30">
-        <v>0.01</v>
-      </c>
-      <c r="Q30">
+      <c r="S30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -2805,57 +3008,63 @@
         <v>35</v>
       </c>
       <c r="C31">
+        <v>0.01</v>
+      </c>
+      <c r="D31">
         <v>81.275000000000006</v>
       </c>
-      <c r="D31" s="5">
-        <f>SUM(C31-0.02)</f>
+      <c r="E31" s="5">
+        <f>SUM(D31-0.02)</f>
         <v>81.25500000000001</v>
       </c>
-      <c r="E31" s="2">
+      <c r="F31">
+        <v>81.275000000000006</v>
+      </c>
+      <c r="G31">
+        <v>81.275000000000006</v>
+      </c>
+      <c r="H31" s="2">
         <f t="shared" si="0"/>
         <v>-1.9999999999996021E-2</v>
       </c>
-      <c r="F31" s="3">
+      <c r="I31" s="3">
         <f t="shared" si="1"/>
         <v>-2.4607812980616452E-2</v>
       </c>
-      <c r="G31">
+      <c r="J31">
         <v>0</v>
       </c>
-      <c r="H31">
+      <c r="K31">
         <v>81.275000000000006</v>
       </c>
-      <c r="I31">
+      <c r="L31">
         <v>81.275000000000006</v>
       </c>
-      <c r="J31">
+      <c r="M31">
         <v>83.98</v>
       </c>
-      <c r="K31">
+      <c r="N31">
         <v>70.25</v>
       </c>
-      <c r="L31" s="4">
+      <c r="O31" s="4">
         <f t="shared" si="2"/>
         <v>77.115000000000009</v>
       </c>
-      <c r="M31">
+      <c r="P31">
         <f t="shared" si="3"/>
         <v>5.3686053297023921</v>
       </c>
-      <c r="N31">
+      <c r="Q31">
         <v>81.275000000000006</v>
       </c>
-      <c r="O31">
+      <c r="R31">
         <v>81.275000000000006</v>
       </c>
-      <c r="P31">
-        <v>0.01</v>
-      </c>
-      <c r="Q31">
+      <c r="S31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -2863,57 +3072,63 @@
         <v>37</v>
       </c>
       <c r="C32">
+        <v>0.02</v>
+      </c>
+      <c r="D32">
         <v>93.88</v>
       </c>
-      <c r="D32">
-        <f>SUM(C32-0.01)</f>
+      <c r="E32">
+        <f>SUM(D32-0.01)</f>
         <v>93.86999999999999</v>
       </c>
-      <c r="E32" s="2">
+      <c r="F32">
+        <v>93.88</v>
+      </c>
+      <c r="G32">
+        <v>93.88</v>
+      </c>
+      <c r="H32" s="2">
         <f t="shared" si="0"/>
         <v>-1.0000000000005116E-2</v>
       </c>
-      <c r="F32" s="3">
+      <c r="I32" s="3">
         <f t="shared" si="1"/>
         <v>-1.0651896037500124E-2</v>
       </c>
-      <c r="G32">
+      <c r="J32">
         <v>5786</v>
       </c>
-      <c r="H32">
+      <c r="K32">
         <v>94.05</v>
       </c>
-      <c r="I32">
+      <c r="L32">
         <v>93.8</v>
       </c>
-      <c r="J32">
+      <c r="M32">
         <v>100.7</v>
       </c>
-      <c r="K32">
+      <c r="N32">
         <v>91.88</v>
       </c>
-      <c r="L32" s="4">
+      <c r="O32" s="4">
         <f t="shared" si="2"/>
         <v>96.289999999999992</v>
       </c>
-      <c r="M32">
+      <c r="P32">
         <f t="shared" si="3"/>
         <v>-2.5132412503894508</v>
       </c>
-      <c r="N32">
+      <c r="Q32">
         <v>93.88</v>
       </c>
-      <c r="O32">
+      <c r="R32">
         <v>93.88</v>
       </c>
-      <c r="P32">
-        <v>0.02</v>
-      </c>
-      <c r="Q32">
+      <c r="S32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -2921,57 +3136,63 @@
         <v>38</v>
       </c>
       <c r="C33">
+        <v>0.02</v>
+      </c>
+      <c r="D33">
         <v>9275.5</v>
       </c>
-      <c r="D33">
-        <f>SUM(C33+0.01)</f>
+      <c r="E33">
+        <f>SUM(D33+0.01)</f>
         <v>9275.51</v>
       </c>
-      <c r="E33" s="2">
+      <c r="F33">
+        <v>9275.5</v>
+      </c>
+      <c r="G33">
+        <v>9275.5</v>
+      </c>
+      <c r="H33" s="2">
         <f t="shared" si="0"/>
         <v>1.0000000000218279E-2</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <f t="shared" si="1"/>
         <v>1.0781089968431113E-4</v>
       </c>
-      <c r="G33">
+      <c r="J33">
         <v>47732</v>
-      </c>
-      <c r="H33">
-        <v>0.93</v>
-      </c>
-      <c r="I33">
-        <v>0.93</v>
-      </c>
-      <c r="J33" s="4">
-        <v>9483</v>
       </c>
       <c r="K33">
         <v>0.93</v>
       </c>
-      <c r="L33" s="4">
+      <c r="L33">
+        <v>0.93</v>
+      </c>
+      <c r="M33" s="4">
+        <v>9483</v>
+      </c>
+      <c r="N33">
+        <v>0.93</v>
+      </c>
+      <c r="O33" s="4">
         <f t="shared" si="2"/>
         <v>4741.9650000000001</v>
       </c>
-      <c r="M33">
+      <c r="P33">
         <f t="shared" si="3"/>
         <v>95.604775657348796</v>
       </c>
-      <c r="N33">
+      <c r="Q33">
         <v>9275.5</v>
       </c>
-      <c r="O33">
+      <c r="R33">
         <v>9275.5</v>
       </c>
-      <c r="P33">
-        <v>0.02</v>
-      </c>
-      <c r="Q33">
+      <c r="S33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -2979,57 +3200,63 @@
         <v>39</v>
       </c>
       <c r="C34">
+        <v>0.02</v>
+      </c>
+      <c r="D34">
         <v>1.4463999999999999</v>
       </c>
-      <c r="D34">
-        <f>SUM(C34+0.01)</f>
+      <c r="E34">
+        <f>SUM(D34+0.01)</f>
         <v>1.4563999999999999</v>
       </c>
-      <c r="E34" s="2">
+      <c r="F34">
+        <v>1.4463999999999999</v>
+      </c>
+      <c r="G34">
+        <v>1.4463999999999999</v>
+      </c>
+      <c r="H34" s="2">
         <f t="shared" si="0"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="F34" s="3">
+      <c r="I34" s="3">
         <f t="shared" si="1"/>
         <v>0.69137168141592986</v>
       </c>
-      <c r="G34">
+      <c r="J34">
         <v>29449</v>
       </c>
-      <c r="H34">
+      <c r="K34">
         <v>1.45</v>
       </c>
-      <c r="I34">
+      <c r="L34">
         <v>1.44</v>
       </c>
-      <c r="J34">
+      <c r="M34">
         <v>1.59</v>
       </c>
-      <c r="K34">
+      <c r="N34">
         <v>1.38</v>
       </c>
-      <c r="L34" s="4">
+      <c r="O34" s="4">
         <f t="shared" si="2"/>
         <v>1.4849999999999999</v>
       </c>
-      <c r="M34">
+      <c r="P34">
         <f t="shared" si="3"/>
         <v>-1.9259259259259234</v>
       </c>
-      <c r="N34">
+      <c r="Q34">
         <v>1.4463999999999999</v>
       </c>
-      <c r="O34">
+      <c r="R34">
         <v>1.4463999999999999</v>
       </c>
-      <c r="P34">
-        <v>0.02</v>
-      </c>
-      <c r="Q34">
+      <c r="S34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -3037,57 +3264,63 @@
         <v>40</v>
       </c>
       <c r="C35">
+        <v>0.02</v>
+      </c>
+      <c r="D35">
         <v>0.73440000000000005</v>
       </c>
-      <c r="D35">
-        <f>SUM(C35+0.01)</f>
+      <c r="E35">
+        <f>SUM(D35+0.01)</f>
         <v>0.74440000000000006</v>
       </c>
-      <c r="E35" s="2">
+      <c r="F35">
+        <v>0.73440000000000005</v>
+      </c>
+      <c r="G35">
+        <v>0.73440000000000005</v>
+      </c>
+      <c r="H35" s="2">
         <f t="shared" si="0"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <f t="shared" si="1"/>
         <v>1.3616557734204804</v>
       </c>
-      <c r="G35">
+      <c r="J35">
         <v>36764</v>
       </c>
-      <c r="H35">
+      <c r="K35">
         <v>0.74</v>
       </c>
-      <c r="I35">
+      <c r="L35">
         <v>0.73</v>
       </c>
-      <c r="J35">
+      <c r="M35">
         <v>0.79</v>
       </c>
-      <c r="K35">
+      <c r="N35">
         <v>0.68</v>
       </c>
-      <c r="L35" s="4">
+      <c r="O35" s="4">
         <f t="shared" si="2"/>
         <v>0.7350000000000001</v>
       </c>
-      <c r="M35">
+      <c r="P35">
         <f t="shared" si="3"/>
         <v>1.2789115646258453</v>
       </c>
-      <c r="N35">
+      <c r="Q35">
         <v>0.73440000000000005</v>
       </c>
-      <c r="O35">
+      <c r="R35">
         <v>0.73440000000000005</v>
       </c>
-      <c r="P35">
-        <v>0.02</v>
-      </c>
-      <c r="Q35">
+      <c r="S35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -3095,57 +3328,63 @@
         <v>41</v>
       </c>
       <c r="C36">
+        <v>0.02</v>
+      </c>
+      <c r="D36">
         <v>0.77439999999999998</v>
       </c>
-      <c r="D36">
-        <f>SUM(C36+0.01)</f>
+      <c r="E36">
+        <f>SUM(D36+0.01)</f>
         <v>0.78439999999999999</v>
       </c>
-      <c r="E36" s="2">
+      <c r="F36">
+        <v>0.77439999999999998</v>
+      </c>
+      <c r="G36">
+        <v>0.77439999999999998</v>
+      </c>
+      <c r="H36" s="2">
         <f t="shared" si="0"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="F36" s="3">
+      <c r="I36" s="3">
         <f t="shared" si="1"/>
         <v>1.291322314049588</v>
       </c>
-      <c r="G36">
+      <c r="J36">
         <v>13668</v>
       </c>
-      <c r="H36">
+      <c r="K36">
         <v>0.77</v>
       </c>
-      <c r="I36">
+      <c r="L36">
         <v>0.77</v>
       </c>
-      <c r="J36">
+      <c r="M36">
         <v>0.83</v>
       </c>
-      <c r="K36">
+      <c r="N36">
         <v>0.68</v>
       </c>
-      <c r="L36" s="4">
+      <c r="O36" s="4">
         <f t="shared" si="2"/>
         <v>0.755</v>
       </c>
-      <c r="M36">
+      <c r="P36">
         <f t="shared" si="3"/>
         <v>3.8940397350993354</v>
       </c>
-      <c r="N36">
+      <c r="Q36">
         <v>0.77439999999999998</v>
       </c>
-      <c r="O36">
+      <c r="R36">
         <v>0.77439999999999998</v>
       </c>
-      <c r="P36">
-        <v>0.02</v>
-      </c>
-      <c r="Q36">
+      <c r="S36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -3153,57 +3392,63 @@
         <v>42</v>
       </c>
       <c r="C37">
+        <v>0.02</v>
+      </c>
+      <c r="D37">
         <v>1.0337000000000001</v>
       </c>
-      <c r="D37">
-        <f>SUM(C37+0.01)</f>
+      <c r="E37">
+        <f>SUM(D37+0.01)</f>
         <v>1.0437000000000001</v>
       </c>
-      <c r="E37" s="2">
+      <c r="F37">
+        <v>1.0337000000000001</v>
+      </c>
+      <c r="G37">
+        <v>1.0337000000000001</v>
+      </c>
+      <c r="H37" s="2">
         <f t="shared" si="0"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="F37" s="3">
+      <c r="I37" s="3">
         <f t="shared" si="1"/>
         <v>0.96739866498984306</v>
       </c>
-      <c r="G37">
+      <c r="J37">
         <v>5550</v>
       </c>
-      <c r="H37">
+      <c r="K37">
         <v>1.03</v>
       </c>
-      <c r="I37">
+      <c r="L37">
         <v>1.03</v>
       </c>
-      <c r="J37">
+      <c r="M37">
         <v>1.1100000000000001</v>
       </c>
-      <c r="K37">
+      <c r="N37">
         <v>0.98</v>
       </c>
-      <c r="L37" s="4">
+      <c r="O37" s="4">
         <f t="shared" si="2"/>
         <v>1.0449999999999999</v>
       </c>
-      <c r="M37">
+      <c r="P37">
         <f t="shared" si="3"/>
         <v>-0.12440191387558439</v>
       </c>
-      <c r="N37">
+      <c r="Q37">
         <v>1.0337000000000001</v>
       </c>
-      <c r="O37">
+      <c r="R37">
         <v>1.0337000000000001</v>
       </c>
-      <c r="P37">
-        <v>0.02</v>
-      </c>
-      <c r="Q37">
+      <c r="S37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -3211,57 +3456,63 @@
         <v>44</v>
       </c>
       <c r="C38">
+        <v>0.01</v>
+      </c>
+      <c r="D38">
         <v>17711</v>
       </c>
-      <c r="D38">
-        <f>SUM(C38+0.03)</f>
+      <c r="E38">
+        <f>SUM(D38+0.03)</f>
         <v>17711.03</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38">
+        <v>17711</v>
+      </c>
+      <c r="G38">
+        <v>17711</v>
+      </c>
+      <c r="H38" s="2">
         <f t="shared" si="0"/>
         <v>2.9999999998835847E-2</v>
       </c>
-      <c r="F38" s="3">
+      <c r="I38" s="3">
         <f t="shared" si="1"/>
         <v>1.6938625712176525E-4</v>
       </c>
-      <c r="G38">
+      <c r="J38">
         <v>22234</v>
       </c>
-      <c r="H38" s="4">
+      <c r="K38" s="4">
         <v>17727</v>
       </c>
-      <c r="I38" s="4">
+      <c r="L38" s="4">
         <v>17642</v>
       </c>
-      <c r="J38" s="4">
+      <c r="M38" s="4">
         <v>18083</v>
       </c>
-      <c r="K38" s="4">
+      <c r="N38" s="4">
         <v>15299</v>
       </c>
-      <c r="L38" s="4">
+      <c r="O38" s="4">
         <f t="shared" si="2"/>
         <v>16691</v>
       </c>
-      <c r="M38">
+      <c r="P38">
         <f t="shared" si="3"/>
         <v>6.1112575639566167</v>
       </c>
-      <c r="N38">
+      <c r="Q38">
         <v>17711</v>
       </c>
-      <c r="O38">
+      <c r="R38">
         <v>17711</v>
       </c>
-      <c r="P38">
-        <v>0.01</v>
-      </c>
-      <c r="Q38">
+      <c r="S38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -3269,57 +3520,63 @@
         <v>45</v>
       </c>
       <c r="C39">
+        <v>0.01</v>
+      </c>
+      <c r="D39">
         <v>2057.5</v>
       </c>
-      <c r="D39">
-        <f>SUM(C39+0.03)</f>
+      <c r="E39">
+        <f>SUM(D39+0.03)</f>
         <v>2057.5300000000002</v>
       </c>
-      <c r="E39" s="2">
+      <c r="F39">
+        <v>2057.5</v>
+      </c>
+      <c r="G39">
+        <v>2057.5</v>
+      </c>
+      <c r="H39" s="2">
         <f t="shared" si="0"/>
         <v>3.0000000000200089E-2</v>
       </c>
-      <c r="F39" s="3">
+      <c r="I39" s="3">
         <f t="shared" si="1"/>
         <v>1.4580801944204175E-3</v>
       </c>
-      <c r="G39">
+      <c r="J39">
         <v>142779</v>
       </c>
-      <c r="H39" s="4">
+      <c r="K39" s="4">
         <v>2059.5</v>
       </c>
-      <c r="I39" s="4">
+      <c r="L39" s="4">
         <v>2049</v>
       </c>
-      <c r="J39" s="4">
+      <c r="M39" s="4">
         <v>2105.5</v>
       </c>
-      <c r="K39" s="4">
+      <c r="N39" s="4">
         <v>1794.5</v>
       </c>
-      <c r="L39" s="4">
+      <c r="O39" s="4">
         <f t="shared" si="2"/>
         <v>1950</v>
       </c>
-      <c r="M39">
+      <c r="P39">
         <f t="shared" si="3"/>
         <v>5.5143589743589851</v>
       </c>
-      <c r="N39">
+      <c r="Q39">
         <v>2057.5</v>
       </c>
-      <c r="O39">
+      <c r="R39">
         <v>2057.5</v>
       </c>
-      <c r="P39">
-        <v>0.01</v>
-      </c>
-      <c r="Q39">
+      <c r="S39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -3327,57 +3584,63 @@
         <v>46</v>
       </c>
       <c r="C40">
+        <v>0.01</v>
+      </c>
+      <c r="D40">
         <v>4341.25</v>
       </c>
-      <c r="D40">
-        <f>SUM(C40+0.03)</f>
+      <c r="E40">
+        <f>SUM(D40+0.03)</f>
         <v>4341.28</v>
       </c>
-      <c r="E40" s="2">
+      <c r="F40">
+        <v>4341.25</v>
+      </c>
+      <c r="G40">
+        <v>4341.25</v>
+      </c>
+      <c r="H40" s="2">
         <f t="shared" si="0"/>
         <v>2.9999999999745341E-2</v>
       </c>
-      <c r="F40" s="3">
+      <c r="I40" s="3">
         <f t="shared" si="1"/>
         <v>6.9104520586801821E-4</v>
       </c>
-      <c r="G40">
+      <c r="J40">
         <v>18259</v>
       </c>
-      <c r="H40" s="4">
+      <c r="K40" s="4">
         <v>4347</v>
       </c>
-      <c r="I40" s="4">
+      <c r="L40" s="4">
         <v>4318</v>
       </c>
-      <c r="J40" s="4">
+      <c r="M40" s="4">
         <v>4719.75</v>
       </c>
-      <c r="K40" s="4">
+      <c r="N40" s="4">
         <v>3867.75</v>
       </c>
-      <c r="L40" s="4">
+      <c r="O40" s="4">
         <f t="shared" si="2"/>
         <v>4293.75</v>
       </c>
-      <c r="M40">
+      <c r="P40">
         <f t="shared" si="3"/>
         <v>1.1069577874817988</v>
       </c>
-      <c r="N40">
+      <c r="Q40">
         <v>4341.25</v>
       </c>
-      <c r="O40">
+      <c r="R40">
         <v>4341.25</v>
       </c>
-      <c r="P40">
-        <v>0.01</v>
-      </c>
-      <c r="Q40">
+      <c r="S40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -3385,57 +3648,63 @@
         <v>47</v>
       </c>
       <c r="C41">
+        <v>0.01</v>
+      </c>
+      <c r="D41">
         <v>1454.3</v>
       </c>
-      <c r="D41">
-        <f>SUM(C41-0.02)</f>
+      <c r="E41">
+        <f>SUM(D41-0.02)</f>
         <v>1454.28</v>
       </c>
-      <c r="E41" s="2">
+      <c r="F41">
+        <v>1454.3</v>
+      </c>
+      <c r="G41">
+        <v>1454.3</v>
+      </c>
+      <c r="H41" s="2">
         <f t="shared" si="0"/>
         <v>-1.999999999998181E-2</v>
       </c>
-      <c r="F41" s="3">
+      <c r="I41" s="3">
         <f t="shared" si="1"/>
         <v>-1.3752320704106312E-3</v>
       </c>
-      <c r="G41">
+      <c r="J41">
         <v>336</v>
       </c>
-      <c r="H41" s="4">
+      <c r="K41" s="4">
         <v>1455</v>
       </c>
-      <c r="I41" s="4">
+      <c r="L41" s="4">
         <v>1448</v>
       </c>
-      <c r="J41" s="4">
+      <c r="M41" s="4">
         <v>1527.3</v>
       </c>
-      <c r="K41" s="4">
+      <c r="N41" s="4">
         <v>1236</v>
       </c>
-      <c r="L41" s="4">
+      <c r="O41" s="4">
         <f t="shared" si="2"/>
         <v>1381.65</v>
       </c>
-      <c r="M41">
+      <c r="P41">
         <f t="shared" si="3"/>
         <v>5.2567582238627644</v>
       </c>
-      <c r="N41">
+      <c r="Q41">
         <v>1454.3</v>
       </c>
-      <c r="O41">
+      <c r="R41">
         <v>1454.3</v>
       </c>
-      <c r="P41">
-        <v>0.01</v>
-      </c>
-      <c r="Q41">
+      <c r="S41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -3443,51 +3712,57 @@
         <v>48</v>
       </c>
       <c r="C42">
+        <v>0.01</v>
+      </c>
+      <c r="D42">
         <v>687.9</v>
       </c>
-      <c r="D42" s="5">
-        <f>SUM(C42-0.02)</f>
+      <c r="E42" s="5">
+        <f>SUM(D42-0.02)</f>
         <v>687.88</v>
       </c>
-      <c r="E42" s="2">
+      <c r="F42">
+        <v>687.9</v>
+      </c>
+      <c r="G42">
+        <v>687.9</v>
+      </c>
+      <c r="H42" s="2">
         <f t="shared" si="0"/>
         <v>-1.999999999998181E-2</v>
       </c>
-      <c r="F42" s="3">
+      <c r="I42" s="3">
         <f t="shared" si="1"/>
         <v>-2.9073993312955099E-3</v>
       </c>
-      <c r="G42">
+      <c r="J42">
         <v>0</v>
       </c>
-      <c r="J42" s="4">
+      <c r="M42" s="4">
         <v>620.32000000000005</v>
       </c>
-      <c r="K42">
+      <c r="N42">
         <v>595.9</v>
       </c>
-      <c r="L42" s="4">
+      <c r="O42" s="4">
         <f t="shared" si="2"/>
         <v>608.11</v>
       </c>
-      <c r="M42">
+      <c r="P42">
         <f t="shared" si="3"/>
         <v>13.117692522734369</v>
       </c>
-      <c r="N42">
+      <c r="Q42">
         <v>687.9</v>
       </c>
-      <c r="O42">
+      <c r="R42">
         <v>687.9</v>
       </c>
-      <c r="P42">
-        <v>0.01</v>
-      </c>
-      <c r="Q42">
+      <c r="S42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -3495,57 +3770,63 @@
         <v>50</v>
       </c>
       <c r="C43">
+        <v>0.01</v>
+      </c>
+      <c r="D43">
         <v>164.875</v>
       </c>
-      <c r="D43">
-        <f>SUM(C43+0.02)</f>
+      <c r="E43">
+        <f>SUM(D43+0.02)</f>
         <v>164.89500000000001</v>
       </c>
-      <c r="E43" s="2">
+      <c r="F43">
+        <v>164.875</v>
+      </c>
+      <c r="G43">
+        <v>164.875</v>
+      </c>
+      <c r="H43" s="2">
         <f t="shared" si="0"/>
         <v>2.0000000000010232E-2</v>
       </c>
-      <c r="F43" s="3">
+      <c r="I43" s="3">
         <f t="shared" si="1"/>
         <v>1.2130401819566478E-2</v>
       </c>
-      <c r="G43">
+      <c r="J43">
         <v>28010</v>
       </c>
-      <c r="H43">
+      <c r="K43">
         <v>165.25</v>
       </c>
-      <c r="I43">
+      <c r="L43">
         <v>164.72</v>
       </c>
-      <c r="J43">
+      <c r="M43">
         <v>169.38</v>
       </c>
-      <c r="K43">
+      <c r="N43">
         <v>151.47</v>
       </c>
-      <c r="L43" s="4">
+      <c r="O43" s="4">
         <f t="shared" si="2"/>
         <v>160.42500000000001</v>
       </c>
-      <c r="M43">
+      <c r="P43">
         <f t="shared" si="3"/>
         <v>2.7863487611033184</v>
       </c>
-      <c r="N43">
+      <c r="Q43">
         <v>164.875</v>
       </c>
-      <c r="O43">
+      <c r="R43">
         <v>164.875</v>
       </c>
-      <c r="P43">
-        <v>0.01</v>
-      </c>
-      <c r="Q43">
+      <c r="S43">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -3553,57 +3834,63 @@
         <v>51</v>
       </c>
       <c r="C44">
+        <v>0.01</v>
+      </c>
+      <c r="D44">
         <v>109.3984</v>
       </c>
-      <c r="D44">
-        <f>SUM(C44-0.01)</f>
+      <c r="E44">
+        <f>SUM(D44-0.01)</f>
         <v>109.38839999999999</v>
       </c>
-      <c r="E44" s="2">
+      <c r="F44">
+        <v>109.3984</v>
+      </c>
+      <c r="G44">
+        <v>109.3984</v>
+      </c>
+      <c r="H44" s="2">
         <f t="shared" si="0"/>
         <v>-1.0000000000005116E-2</v>
       </c>
-      <c r="F44" s="3">
+      <c r="I44" s="3">
         <f t="shared" si="1"/>
         <v>-9.1409015122754216E-3</v>
       </c>
-      <c r="G44">
+      <c r="J44">
         <v>17742</v>
       </c>
-      <c r="H44">
+      <c r="K44">
         <v>109.41</v>
       </c>
-      <c r="I44">
+      <c r="L44">
         <v>109.38</v>
       </c>
-      <c r="J44">
+      <c r="M44">
         <v>109.8</v>
       </c>
-      <c r="K44">
+      <c r="N44">
         <v>108.62</v>
       </c>
-      <c r="L44" s="4">
+      <c r="O44" s="4">
         <f t="shared" si="2"/>
         <v>109.21000000000001</v>
       </c>
-      <c r="M44">
+      <c r="P44">
         <f t="shared" si="3"/>
         <v>0.1633550041204854</v>
       </c>
-      <c r="N44">
+      <c r="Q44">
         <v>109.3984</v>
       </c>
-      <c r="O44">
+      <c r="R44">
         <v>109.3984</v>
       </c>
-      <c r="P44">
-        <v>0.01</v>
-      </c>
-      <c r="Q44">
+      <c r="S44">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -3611,57 +3898,63 @@
         <v>52</v>
       </c>
       <c r="C45">
+        <v>0.01</v>
+      </c>
+      <c r="D45">
         <v>130.5625</v>
       </c>
-      <c r="D45">
-        <f>SUM(C45+0.02)</f>
+      <c r="E45">
+        <f>SUM(D45+0.02)</f>
         <v>130.58250000000001</v>
       </c>
-      <c r="E45" s="2">
+      <c r="F45">
+        <v>130.5625</v>
+      </c>
+      <c r="G45">
+        <v>130.5625</v>
+      </c>
+      <c r="H45" s="2">
         <f t="shared" si="0"/>
         <v>2.0000000000010232E-2</v>
       </c>
-      <c r="F45" s="3">
+      <c r="I45" s="3">
         <f t="shared" si="1"/>
         <v>1.5318334131171073E-2</v>
       </c>
-      <c r="G45">
+      <c r="J45">
         <v>189310</v>
       </c>
-      <c r="H45">
+      <c r="K45">
         <v>130.63</v>
       </c>
-      <c r="I45">
+      <c r="L45">
         <v>130.44</v>
       </c>
-      <c r="J45">
+      <c r="M45">
         <v>132.63999999999999</v>
       </c>
-      <c r="K45">
+      <c r="N45">
         <v>125.48</v>
       </c>
-      <c r="L45" s="4">
+      <c r="O45" s="4">
         <f t="shared" si="2"/>
         <v>129.06</v>
       </c>
-      <c r="M45">
+      <c r="P45">
         <f t="shared" si="3"/>
         <v>1.179683867968393</v>
       </c>
-      <c r="N45">
+      <c r="Q45">
         <v>130.5625</v>
       </c>
-      <c r="O45">
+      <c r="R45">
         <v>130.5625</v>
       </c>
-      <c r="P45">
-        <v>0.01</v>
-      </c>
-      <c r="Q45">
+      <c r="S45">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -3669,64 +3962,75 @@
         <v>53</v>
       </c>
       <c r="C46">
+        <v>0.01</v>
+      </c>
+      <c r="D46">
         <v>99.18</v>
       </c>
-      <c r="D46">
-        <f>SUM(C46-0.01)</f>
+      <c r="E46">
+        <f>SUM(D46-0.01)</f>
         <v>99.17</v>
       </c>
-      <c r="E46" s="2">
+      <c r="F46">
+        <v>99.18</v>
+      </c>
+      <c r="G46">
+        <v>99.18</v>
+      </c>
+      <c r="H46" s="2">
         <f t="shared" si="0"/>
         <v>-1.0000000000005116E-2</v>
       </c>
-      <c r="F46" s="3">
+      <c r="I46" s="3">
         <f t="shared" si="1"/>
         <v>-1.008267795927114E-2</v>
       </c>
-      <c r="G46">
+      <c r="J46">
         <v>29509</v>
       </c>
-      <c r="H46">
+      <c r="K46">
         <v>99.18</v>
       </c>
-      <c r="I46">
+      <c r="L46">
         <v>99.17</v>
       </c>
-      <c r="J46">
+      <c r="M46">
         <v>99.38</v>
       </c>
-      <c r="K46">
+      <c r="N46">
         <v>98.41</v>
       </c>
-      <c r="L46" s="4">
+      <c r="O46" s="4">
         <f t="shared" si="2"/>
         <v>98.894999999999996</v>
       </c>
-      <c r="M46">
+      <c r="P46">
         <f t="shared" si="3"/>
         <v>0.2780727033722693</v>
       </c>
-      <c r="N46">
+      <c r="Q46">
         <v>99.18</v>
       </c>
-      <c r="O46">
+      <c r="R46">
         <v>99.18</v>
       </c>
-      <c r="P46">
-        <v>0.01</v>
-      </c>
-      <c r="Q46">
+      <c r="S46">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:Q46">
-    <sortCondition ref="Q2:Q46"/>
+  <sortState ref="A2:T46">
+    <sortCondition ref="S2:S46"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <ignoredErrors>
-    <ignoredError sqref="D19" formula="1"/>
+    <ignoredError sqref="E19" formula="1"/>
   </ignoredErrors>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/DataSets/PriceBlotterCommodity.xlsx
+++ b/DataSets/PriceBlotterCommodity.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AdaptableTools/Code/adaptableblotter-demo/DataSets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="44700" windowHeight="15500"/>
   </bookViews>
   <sheets>
     <sheet name="CommodityPrice" sheetId="2" r:id="rId1"/>
@@ -12,20 +17,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CommodityPrice!$A$2:$A$1008</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="69">
   <si>
     <t>GOLD</t>
   </si>
@@ -231,7 +236,7 @@
     <t>PercentChange</t>
   </si>
   <si>
-    <t>YTDPercentChange</t>
+    <t>PercentChangeOnYear</t>
   </si>
 </sst>
 </file>
@@ -737,13 +742,16 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="48">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1063,7 +1071,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1071,13 +1079,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S46"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
@@ -1088,10 +1096,10 @@
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="14" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.1640625" customWidth="1"/>
-    <col min="16" max="16" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -1138,19 +1146,13 @@
         <v>66</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q1" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1">
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1201,20 +1203,13 @@
         <v>1176.5999999999999</v>
       </c>
       <c r="P2">
-        <f t="shared" ref="P2:P46" si="3">SUM(((E2-O2)/O2)*100)</f>
+        <v>1</v>
+      </c>
+      <c r="Q2" s="7">
         <v>8.8832228454869959</v>
       </c>
-      <c r="Q2" s="2">
-        <v>1280.5999999999999</v>
-      </c>
-      <c r="R2" s="2">
-        <v>1281.5999999999999</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1265,20 +1260,13 @@
         <v>15.895</v>
       </c>
       <c r="P3">
-        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="Q3" s="8">
         <v>9.5942120163573374</v>
       </c>
-      <c r="Q3">
-        <v>17.43</v>
-      </c>
-      <c r="R3">
-        <v>17.43</v>
-      </c>
-      <c r="S3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1329,20 +1317,13 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="P4">
-        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="Q4" s="8">
         <v>-13.755102040816315</v>
       </c>
-      <c r="Q4">
-        <v>2.1230000000000002</v>
-      </c>
-      <c r="R4">
-        <v>2.1230000000000002</v>
-      </c>
-      <c r="S4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1393,20 +1374,13 @@
         <v>966.5</v>
       </c>
       <c r="P5">
-        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="Q5" s="8">
         <v>10.876357992757359</v>
       </c>
-      <c r="Q5">
-        <v>1071.5999999999999</v>
-      </c>
-      <c r="R5">
-        <v>1071.5999999999999</v>
-      </c>
-      <c r="S5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -1457,20 +1431,13 @@
         <v>574.29999999999995</v>
       </c>
       <c r="P6">
-        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="Q6" s="8">
         <v>4.574264321783037</v>
       </c>
-      <c r="Q6">
-        <v>600.54999999999995</v>
-      </c>
-      <c r="R6">
-        <v>600.54999999999995</v>
-      </c>
-      <c r="S6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1521,20 +1488,13 @@
         <v>48.034999999999997</v>
       </c>
       <c r="P7">
-        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="Q7" s="8">
         <v>-5.2149474341625801</v>
       </c>
-      <c r="Q7">
-        <v>45.54</v>
-      </c>
-      <c r="R7">
-        <v>45.54</v>
-      </c>
-      <c r="S7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1585,20 +1545,13 @@
         <v>50.58</v>
       </c>
       <c r="P8">
-        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="Q8" s="8">
         <v>-8.9561091340450645</v>
       </c>
-      <c r="Q8">
-        <v>46.06</v>
-      </c>
-      <c r="R8">
-        <v>46.06</v>
-      </c>
-      <c r="S8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1649,20 +1602,13 @@
         <v>2.52</v>
       </c>
       <c r="P9">
-        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="Q9" s="8">
         <v>-16.50793650793652</v>
       </c>
-      <c r="Q9">
-        <v>2.0939999999999999</v>
-      </c>
-      <c r="R9">
-        <v>2.0939999999999999</v>
-      </c>
-      <c r="S9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1713,20 +1659,13 @@
         <v>1.5999999999999999</v>
       </c>
       <c r="P10">
-        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="Q10" s="8">
         <v>-5.0874999999999959</v>
       </c>
-      <c r="Q10">
-        <v>1.5085999999999999</v>
-      </c>
-      <c r="R10">
-        <v>1.5085999999999999</v>
-      </c>
-      <c r="S10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1777,20 +1716,13 @@
         <v>1.5149999999999999</v>
       </c>
       <c r="P11">
-        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="Q11" s="8">
         <v>-10.402640264026401</v>
       </c>
-      <c r="Q11">
-        <v>1.3473999999999999</v>
-      </c>
-      <c r="R11">
-        <v>1.3473999999999999</v>
-      </c>
-      <c r="S11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1841,20 +1773,13 @@
         <v>1.4750000000000001</v>
       </c>
       <c r="P12">
-        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="Q12" s="8">
         <v>4.542372881355929</v>
       </c>
-      <c r="Q12">
-        <v>1.512</v>
-      </c>
-      <c r="R12">
-        <v>1.512</v>
-      </c>
-      <c r="S12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1905,20 +1830,13 @@
         <v>25.3</v>
       </c>
       <c r="P13">
-        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="Q13" s="8">
         <v>9.0118577075098862</v>
       </c>
-      <c r="Q13">
-        <v>27.55</v>
-      </c>
-      <c r="R13">
-        <v>27.55</v>
-      </c>
-      <c r="S13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1969,20 +1887,13 @@
         <v>0.43974999999999997</v>
       </c>
       <c r="P14">
-        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="Q14" s="8">
         <v>-5.3325753268902725</v>
       </c>
-      <c r="Q14">
-        <v>0.43630000000000002</v>
-      </c>
-      <c r="R14">
-        <v>0.43630000000000002</v>
-      </c>
-      <c r="S14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -2033,20 +1944,13 @@
         <v>539</v>
       </c>
       <c r="P15">
-        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="Q15" s="8">
         <v>-13.632653061224492</v>
       </c>
-      <c r="Q15">
-        <v>465.5</v>
-      </c>
-      <c r="R15">
-        <v>465.5</v>
-      </c>
-      <c r="S15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -2097,20 +2001,13 @@
         <v>411.25</v>
       </c>
       <c r="P16">
-        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="Q16" s="8">
         <v>-7.7155015197568426</v>
       </c>
-      <c r="Q16">
-        <v>379.5</v>
-      </c>
-      <c r="R16">
-        <v>379.5</v>
-      </c>
-      <c r="S16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -2161,20 +2058,13 @@
         <v>14.120000000000001</v>
       </c>
       <c r="P17">
-        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="Q17" s="8">
         <v>10.977337110481578</v>
       </c>
-      <c r="Q17">
-        <v>15.68</v>
-      </c>
-      <c r="R17">
-        <v>15.68</v>
-      </c>
-      <c r="S17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -2225,20 +2115,13 @@
         <v>958.25</v>
       </c>
       <c r="P18">
-        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="Q18" s="8">
         <v>8.3245499608661611</v>
       </c>
-      <c r="Q18">
-        <v>1038</v>
-      </c>
-      <c r="R18">
-        <v>1038</v>
-      </c>
-      <c r="S18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -2289,20 +2172,13 @@
         <v>31.02</v>
       </c>
       <c r="P19">
-        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="Q19" s="8">
         <v>7.1889103803997436</v>
       </c>
-      <c r="Q19">
-        <v>33.26</v>
-      </c>
-      <c r="R19">
-        <v>33.26</v>
-      </c>
-      <c r="S19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -2353,20 +2229,13 @@
         <v>307.54999999999995</v>
       </c>
       <c r="P20">
-        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="Q20" s="8">
         <v>11.403023898553098</v>
       </c>
-      <c r="Q20">
-        <v>342.6</v>
-      </c>
-      <c r="R20">
-        <v>342.6</v>
-      </c>
-      <c r="S20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -2411,20 +2280,13 @@
         <v>134.47499999999999</v>
       </c>
       <c r="P21">
-        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="Q21" s="8">
         <v>4.5398773006134894</v>
       </c>
-      <c r="Q21">
-        <v>140.6</v>
-      </c>
-      <c r="R21">
-        <v>140.6</v>
-      </c>
-      <c r="S21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -2475,20 +2337,13 @@
         <v>135.55000000000001</v>
       </c>
       <c r="P22">
-        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="Q22" s="8">
         <v>-7.2740686093692455</v>
       </c>
-      <c r="Q22">
-        <v>125.7</v>
-      </c>
-      <c r="R22">
-        <v>125.7</v>
-      </c>
-      <c r="S22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -2539,20 +2394,13 @@
         <v>3076</v>
       </c>
       <c r="P23">
-        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="Q23" s="8">
         <v>9.7529258778283781E-4</v>
       </c>
-      <c r="Q23">
-        <v>3076</v>
-      </c>
-      <c r="R23">
-        <v>3076</v>
-      </c>
-      <c r="S23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -2603,20 +2451,13 @@
         <v>11.92</v>
       </c>
       <c r="P24">
-        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="Q24" s="8">
         <v>-5.7466442953020174</v>
       </c>
-      <c r="Q24">
-        <v>11.244999999999999</v>
-      </c>
-      <c r="R24">
-        <v>11.244999999999999</v>
-      </c>
-      <c r="S24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19">
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -2667,20 +2508,13 @@
         <v>212.5</v>
       </c>
       <c r="P25">
-        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="Q25" s="8">
         <v>-8.4611764705882297</v>
       </c>
-      <c r="Q25">
-        <v>194.5</v>
-      </c>
-      <c r="R25">
-        <v>194.5</v>
-      </c>
-      <c r="S25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19">
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -2731,20 +2565,13 @@
         <v>14.885000000000002</v>
       </c>
       <c r="P26">
-        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="Q26" s="8">
         <v>-13.604299630500517</v>
       </c>
-      <c r="Q26">
-        <v>12.87</v>
-      </c>
-      <c r="R26">
-        <v>12.87</v>
-      </c>
-      <c r="S26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19">
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -2795,20 +2622,13 @@
         <v>60.96</v>
       </c>
       <c r="P27">
-        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="Q27" s="8">
         <v>1.3123359580052563</v>
       </c>
-      <c r="Q27">
-        <v>61.77</v>
-      </c>
-      <c r="R27">
-        <v>61.77</v>
-      </c>
-      <c r="S27">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19">
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -2859,20 +2679,13 @@
         <v>276.55</v>
       </c>
       <c r="P28">
-        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="Q28" s="8">
         <v>9.8824805640932869</v>
       </c>
-      <c r="Q28">
-        <v>303.89999999999998</v>
-      </c>
-      <c r="R28">
-        <v>303.89999999999998</v>
-      </c>
-      <c r="S28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -2923,20 +2736,13 @@
         <v>130.94</v>
       </c>
       <c r="P29">
-        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="Q29" s="8">
         <v>-7.8165572017718041</v>
       </c>
-      <c r="Q29">
-        <v>120.72499999999999</v>
-      </c>
-      <c r="R29">
-        <v>120.72499999999999</v>
-      </c>
-      <c r="S29">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19">
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -2987,20 +2793,13 @@
         <v>164.05</v>
       </c>
       <c r="P30">
-        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="Q30" s="8">
         <v>-10.298689423956116</v>
       </c>
-      <c r="Q30">
-        <v>147.17500000000001</v>
-      </c>
-      <c r="R30">
-        <v>147.17500000000001</v>
-      </c>
-      <c r="S30">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -3051,20 +2850,13 @@
         <v>77.115000000000009</v>
       </c>
       <c r="P31">
-        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="Q31" s="8">
         <v>5.3686053297023921</v>
       </c>
-      <c r="Q31">
-        <v>81.275000000000006</v>
-      </c>
-      <c r="R31">
-        <v>81.275000000000006</v>
-      </c>
-      <c r="S31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19">
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -3115,20 +2907,13 @@
         <v>96.289999999999992</v>
       </c>
       <c r="P32">
-        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="Q32" s="8">
         <v>-2.5132412503894508</v>
       </c>
-      <c r="Q32">
-        <v>93.88</v>
-      </c>
-      <c r="R32">
-        <v>93.88</v>
-      </c>
-      <c r="S32">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19">
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -3179,20 +2964,13 @@
         <v>4741.9650000000001</v>
       </c>
       <c r="P33">
-        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="Q33" s="8">
         <v>95.604775657348796</v>
       </c>
-      <c r="Q33">
-        <v>9275.5</v>
-      </c>
-      <c r="R33">
-        <v>9275.5</v>
-      </c>
-      <c r="S33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19">
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -3243,20 +3021,13 @@
         <v>1.4849999999999999</v>
       </c>
       <c r="P34">
-        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="Q34" s="8">
         <v>-1.9259259259259234</v>
       </c>
-      <c r="Q34">
-        <v>1.4463999999999999</v>
-      </c>
-      <c r="R34">
-        <v>1.4463999999999999</v>
-      </c>
-      <c r="S34">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19">
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -3307,20 +3078,13 @@
         <v>0.7350000000000001</v>
       </c>
       <c r="P35">
-        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="Q35" s="8">
         <v>1.2789115646258453</v>
       </c>
-      <c r="Q35">
-        <v>0.73440000000000005</v>
-      </c>
-      <c r="R35">
-        <v>0.73440000000000005</v>
-      </c>
-      <c r="S35">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19">
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -3371,20 +3135,13 @@
         <v>0.755</v>
       </c>
       <c r="P36">
-        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="Q36" s="8">
         <v>3.8940397350993354</v>
       </c>
-      <c r="Q36">
-        <v>0.77439999999999998</v>
-      </c>
-      <c r="R36">
-        <v>0.77439999999999998</v>
-      </c>
-      <c r="S36">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19">
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -3435,20 +3192,13 @@
         <v>1.0449999999999999</v>
       </c>
       <c r="P37">
-        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="Q37" s="8">
         <v>-0.12440191387558439</v>
       </c>
-      <c r="Q37">
-        <v>1.0337000000000001</v>
-      </c>
-      <c r="R37">
-        <v>1.0337000000000001</v>
-      </c>
-      <c r="S37">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19">
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -3499,20 +3249,13 @@
         <v>16691</v>
       </c>
       <c r="P38">
-        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="Q38" s="8">
         <v>6.1112575639566167</v>
       </c>
-      <c r="Q38">
-        <v>17711</v>
-      </c>
-      <c r="R38">
-        <v>17711</v>
-      </c>
-      <c r="S38">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19">
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -3563,20 +3306,13 @@
         <v>1950</v>
       </c>
       <c r="P39">
-        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="Q39" s="8">
         <v>5.5143589743589851</v>
       </c>
-      <c r="Q39">
-        <v>2057.5</v>
-      </c>
-      <c r="R39">
-        <v>2057.5</v>
-      </c>
-      <c r="S39">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19">
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -3627,20 +3363,13 @@
         <v>4293.75</v>
       </c>
       <c r="P40">
-        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="Q40" s="8">
         <v>1.1069577874817988</v>
       </c>
-      <c r="Q40">
-        <v>4341.25</v>
-      </c>
-      <c r="R40">
-        <v>4341.25</v>
-      </c>
-      <c r="S40">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19">
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -3691,20 +3420,13 @@
         <v>1381.65</v>
       </c>
       <c r="P41">
-        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="Q41" s="8">
         <v>5.2567582238627644</v>
       </c>
-      <c r="Q41">
-        <v>1454.3</v>
-      </c>
-      <c r="R41">
-        <v>1454.3</v>
-      </c>
-      <c r="S41">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19">
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -3749,20 +3471,13 @@
         <v>608.11</v>
       </c>
       <c r="P42">
-        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="Q42" s="8">
         <v>13.117692522734369</v>
       </c>
-      <c r="Q42">
-        <v>687.9</v>
-      </c>
-      <c r="R42">
-        <v>687.9</v>
-      </c>
-      <c r="S42">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19">
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -3813,20 +3528,13 @@
         <v>160.42500000000001</v>
       </c>
       <c r="P43">
-        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="Q43" s="8">
         <v>2.7863487611033184</v>
       </c>
-      <c r="Q43">
-        <v>164.875</v>
-      </c>
-      <c r="R43">
-        <v>164.875</v>
-      </c>
-      <c r="S43">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19">
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -3877,20 +3585,13 @@
         <v>109.21000000000001</v>
       </c>
       <c r="P44">
-        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="Q44" s="8">
         <v>0.1633550041204854</v>
       </c>
-      <c r="Q44">
-        <v>109.3984</v>
-      </c>
-      <c r="R44">
-        <v>109.3984</v>
-      </c>
-      <c r="S44">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19">
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -3941,20 +3642,13 @@
         <v>129.06</v>
       </c>
       <c r="P45">
-        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="Q45" s="8">
         <v>1.179683867968393</v>
       </c>
-      <c r="Q45">
-        <v>130.5625</v>
-      </c>
-      <c r="R45">
-        <v>130.5625</v>
-      </c>
-      <c r="S45">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19">
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -4005,32 +3699,20 @@
         <v>98.894999999999996</v>
       </c>
       <c r="P46">
-        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="Q46" s="8">
         <v>0.2780727033722693</v>
-      </c>
-      <c r="Q46">
-        <v>99.18</v>
-      </c>
-      <c r="R46">
-        <v>99.18</v>
-      </c>
-      <c r="S46">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:T46">
-    <sortCondition ref="S2:S46"/>
+    <sortCondition ref="P2:P46"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <ignoredErrors>
     <ignoredError sqref="E19" formula="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>